--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,366 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>N,T,E</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>E,R,A</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>O,T,P</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>W,O,N</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>OWN</t>
+  </si>
+  <si>
+    <t>T,W,A,N</t>
+  </si>
+  <si>
+    <t>WANT</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>E,T,A</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>TEAS</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>SEAT</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>H,A,P,T</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>HAT</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>W,S,T,E</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>WET</t>
+  </si>
+  <si>
+    <t>SEW</t>
+  </si>
+  <si>
+    <t>B,G,A,R</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BAG</t>
+  </si>
+  <si>
+    <t>GRAB</t>
+  </si>
+  <si>
+    <t>BRAG</t>
+  </si>
+  <si>
+    <t>Y,S,A,E</t>
+  </si>
+  <si>
+    <t>SAY</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>YEAS</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>M,T,E,A</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>MATE</t>
+  </si>
+  <si>
+    <t>MEAT</t>
+  </si>
+  <si>
+    <t>D,N,O,E</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOD</t>
+  </si>
+  <si>
+    <t>DON</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>NODE</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Mesh; actual amount; Internet.</t>
+  </si>
+  <si>
+    <t>Number 10.</t>
+  </si>
+  <si>
+    <t>Period, age.</t>
+  </si>
+  <si>
+    <t>Plural form of “be.”</t>
+  </si>
+  <si>
+    <t>Organ for hearing</t>
+  </si>
+  <si>
+    <t>To choose, to select.</t>
+  </si>
+  <si>
+    <t>Ball; highest point</t>
+  </si>
+  <si>
+    <t>Cooking vessel; container.</t>
+  </si>
+  <si>
+    <t>At the present moment.</t>
+  </si>
+  <si>
+    <t>To possess; personal.</t>
+  </si>
+  <si>
+    <t>To desire, to wish for.</t>
+  </si>
+  <si>
+    <t>A small insect that lives in colonies.</t>
+  </si>
+  <si>
+    <t>Skin color; to darken in the sun.</t>
+  </si>
+  <si>
+    <t>Past tense of “eat.”</t>
+  </si>
+  <si>
+    <t>Past tense of “win.”</t>
+  </si>
+  <si>
+    <t>A drink made by infusing leaves in hot water.</t>
+  </si>
+  <si>
+    <t>Group, collection; to put or place.</t>
+  </si>
+  <si>
+    <t>Past tense of “sit.”</t>
+  </si>
+  <si>
+    <t>Plural of “tea.”</t>
+  </si>
+  <si>
+    <t>To consume food.</t>
+  </si>
+  <si>
+    <t>Place to sit; chair</t>
+  </si>
+  <si>
+    <t>The direction toward the sunrise.</t>
+  </si>
+  <si>
+    <t>Large body of salt water.</t>
+  </si>
+  <si>
+    <t>A head covering.</t>
+  </si>
+  <si>
+    <t>A way or track for walking.</t>
+  </si>
+  <si>
+    <t>Suitable; skilled.</t>
+  </si>
+  <si>
+    <t>To touch lightly; a faucet.</t>
+  </si>
+  <si>
+    <t>The direction opposite to east.</t>
+  </si>
+  <si>
+    <t>Covered with liquid.</t>
+  </si>
+  <si>
+    <t>To unite or fasten by stitches.</t>
+  </si>
+  <si>
+    <t>Rod; counter.</t>
+  </si>
+  <si>
+    <t>Garage; train station.</t>
+  </si>
+  <si>
+    <t>A woman's undergarment.</t>
+  </si>
+  <si>
+    <t>A container carrying items.</t>
+  </si>
+  <si>
+    <t>To take hold of suddenly.</t>
+  </si>
+  <si>
+    <t>To boast about something.</t>
+  </si>
+  <si>
+    <t>To speak or express in words.</t>
+  </si>
+  <si>
+    <t>Affirmative response.</t>
+  </si>
+  <si>
+    <t>Plural of “yea”; affirmative votes.</t>
+  </si>
+  <si>
+    <t>Not difficult; comfortable.</t>
+  </si>
+  <si>
+    <t>Past tense of “meet.”</t>
+  </si>
+  <si>
+    <t>Flesh of an animal used as food.</t>
+  </si>
+  <si>
+    <t>A group of people working together.</t>
+  </si>
+  <si>
+    <t>Friend; companion; partner.</t>
+  </si>
+  <si>
+    <t>Completed; finished; ready.</t>
+  </si>
+  <si>
+    <t>To move the head up and down in agreement or greeting.</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>To put on (clothing).</t>
+  </si>
+  <si>
+    <t>Final part; to bring to a conclusion.</t>
+  </si>
+  <si>
+    <t>A point of connection or intersection.</t>
+  </si>
+  <si>
+    <t>A female deer or rabbit.</t>
+  </si>
+  <si>
+    <t>The number 1.</t>
+  </si>
+  <si>
+    <t>Animal’s lair or hideout.</t>
+  </si>
+  <si>
+    <t>To strike lightly with a slight sound.</t>
   </si>
 </sst>
 </file>
@@ -373,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,9 +770,997 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="D75" s="1"/>
+    </row>
     <row r="76" spans="3:4">
       <c r="C76" s="2"/>
-      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" s="2"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -394,6 +394,66 @@
   </si>
   <si>
     <t>To strike lightly with a slight sound.</t>
+  </si>
+  <si>
+    <t>G,A,M,E</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>MAGE</t>
+  </si>
+  <si>
+    <t>GEM</t>
+  </si>
+  <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>L,A,T,E</t>
+  </si>
+  <si>
+    <t>LATE</t>
+  </si>
+  <si>
+    <t>TALE</t>
+  </si>
+  <si>
+    <t>LET</t>
+  </si>
+  <si>
+    <t>Play activity.</t>
+  </si>
+  <si>
+    <t>A magician or sorcerer.</t>
+  </si>
+  <si>
+    <t>Precious stone.</t>
+  </si>
+  <si>
+    <t>Very large, huge.</t>
+  </si>
+  <si>
+    <t>The length of time a person has lived; a historical period.</t>
+  </si>
+  <si>
+    <t>First person singular of “be.”</t>
+  </si>
+  <si>
+    <t>After the expected time.</t>
+  </si>
+  <si>
+    <t>A story, often imaginary or traditional.</t>
+  </si>
+  <si>
+    <t>To allow.</t>
   </si>
 </sst>
 </file>
@@ -733,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,22 +1816,226 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="1:5">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="1:5">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="1:5">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="1:5">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="1:5">
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="3:3">

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -93,9 +93,6 @@
     <t>TAN</t>
   </si>
   <si>
-    <t>E,T,A</t>
-  </si>
-  <si>
     <t>ATE</t>
   </si>
   <si>
@@ -454,13 +451,16 @@
   </si>
   <si>
     <t>To allow.</t>
+  </si>
+  <si>
+    <t>E,T,A,S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,27 +793,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -841,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -858,13 +858,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -875,13 +875,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -892,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -926,13 +926,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -943,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -960,13 +960,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -977,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -994,13 +994,13 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1011,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1028,13 +1028,13 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1045,13 +1045,13 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1062,1049 +1062,1049 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
       <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
       <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
         <v>62</v>
       </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
       <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="C60" t="s">
-        <v>126</v>
-      </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
       <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
         <v>132</v>
       </c>
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
     </row>
   </sheetData>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -454,34 +454,207 @@
   </si>
   <si>
     <t>E,T,A,S</t>
+  </si>
+  <si>
+    <t>L,O,N,E,A</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>NOEL</t>
+  </si>
+  <si>
+    <t>LANE</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>ALONE</t>
+  </si>
+  <si>
+    <t>LEAN</t>
+  </si>
+  <si>
+    <t>S,C,N,T,E</t>
+  </si>
+  <si>
+    <t>CENT</t>
+  </si>
+  <si>
+    <t>SCENT</t>
+  </si>
+  <si>
+    <t>CENTS</t>
+  </si>
+  <si>
+    <t>NEST</t>
+  </si>
+  <si>
+    <t>NETS</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>P,Y,L,A,P</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>PAY</t>
+  </si>
+  <si>
+    <t>YAP</t>
+  </si>
+  <si>
+    <t>LAY</t>
+  </si>
+  <si>
+    <t>PLY</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>LAP</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>APPLY</t>
+  </si>
+  <si>
+    <t>L,A,M,I,C</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>CLAIM</t>
+  </si>
+  <si>
+    <t>LAM</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MALIC</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>CLAM</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>Narrow road.</t>
+  </si>
+  <si>
+    <t>Money lent; the act of lending.</t>
+  </si>
+  <si>
+    <t>Christmas; the celebration of the birth of Jesus Christ.</t>
+  </si>
+  <si>
+    <t>By oneself; without others.</t>
+  </si>
+  <si>
+    <t>A meadow or grassy field.</t>
+  </si>
+  <si>
+    <t>To incline or bend.</t>
+  </si>
+  <si>
+    <t>The number 10.</t>
+  </si>
+  <si>
+    <t>A coin worth one-hundredth of a dollar.</t>
+  </si>
+  <si>
+    <t>Smell.</t>
+  </si>
+  <si>
+    <t>Plural of “cent”; coins worth one-hundredth of a dollar.</t>
+  </si>
+  <si>
+    <t>A bird’s home.</t>
+  </si>
+  <si>
+    <t>The Internet (plural).</t>
+  </si>
+  <si>
+    <t>Past tense of “send.”</t>
+  </si>
+  <si>
+    <t>To engage in a game.</t>
+  </si>
+  <si>
+    <t>To give money for something.</t>
+  </si>
+  <si>
+    <t>A short, sharp bark (of a small dog).</t>
+  </si>
+  <si>
+    <t>To put or place.</t>
+  </si>
+  <si>
+    <t>Layer.</t>
+  </si>
+  <si>
+    <t>Application.</t>
+  </si>
+  <si>
+    <t>The front part of the thighs when sitting.</t>
+  </si>
+  <si>
+    <t>Friend, buddy.</t>
+  </si>
+  <si>
+    <t>To put into practice.</t>
+  </si>
+  <si>
+    <t>Letters or parcels sent.</t>
+  </si>
+  <si>
+    <t>To state as true.</t>
+  </si>
+  <si>
+    <t>To escape or run away.</t>
+  </si>
+  <si>
+    <t>Raincoat; (informally).</t>
+  </si>
+  <si>
+    <t>Relating to or containing malic acid; sour or acidic.</t>
+  </si>
+  <si>
+    <t>To point or direct; goal or target.</t>
+  </si>
+  <si>
+    <t>A type of shellfish.</t>
+  </si>
+  <si>
+    <t>Peaceful, quiet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,13 +686,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -793,27 +964,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -847,7 +1018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -864,7 +1035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -881,7 +1052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -898,7 +1069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -915,7 +1086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -932,7 +1103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
@@ -949,7 +1120,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>3</v>
       </c>
@@ -966,7 +1137,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>4</v>
       </c>
@@ -983,7 +1154,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1000,7 +1171,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1017,7 +1188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1034,7 +1205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1051,7 +1222,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1068,7 +1239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1085,7 +1256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1102,7 +1273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1119,7 +1290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1136,7 +1307,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1153,7 +1324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1170,7 +1341,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1187,7 +1358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1204,7 +1375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1221,7 +1392,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1238,7 +1409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1255,7 +1426,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1272,7 +1443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1289,7 +1460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1306,7 +1477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1323,7 +1494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1340,7 +1511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1357,7 +1528,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1374,7 +1545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1391,7 +1562,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1408,7 +1579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1425,7 +1596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1442,7 +1613,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1459,7 +1630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1476,7 +1647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1493,7 +1664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1510,7 +1681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1527,7 +1698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>10</v>
       </c>
@@ -1544,7 +1715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1561,7 +1732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>11</v>
       </c>
@@ -1578,7 +1749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>11</v>
       </c>
@@ -1595,7 +1766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1612,7 +1783,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1629,7 +1800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>11</v>
       </c>
@@ -1646,7 +1817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>11</v>
       </c>
@@ -1663,7 +1834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1680,7 +1851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>12</v>
       </c>
@@ -1697,7 +1868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1714,7 +1885,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1731,7 +1902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>12</v>
       </c>
@@ -1748,7 +1919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>12</v>
       </c>
@@ -1765,7 +1936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>12</v>
       </c>
@@ -1782,7 +1953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>12</v>
       </c>
@@ -1799,7 +1970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>12</v>
       </c>
@@ -1816,7 +1987,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>13</v>
       </c>
@@ -1833,7 +2004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>13</v>
       </c>
@@ -1850,7 +2021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>13</v>
       </c>
@@ -1867,7 +2038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>13</v>
       </c>
@@ -1884,7 +2055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>13</v>
       </c>
@@ -1901,7 +2072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>13</v>
       </c>
@@ -1918,7 +2089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>14</v>
       </c>
@@ -1935,7 +2106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>14</v>
       </c>
@@ -1952,7 +2123,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>14</v>
       </c>
@@ -1969,7 +2140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>14</v>
       </c>
@@ -1986,7 +2157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2003,7 +2174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>14</v>
       </c>
@@ -2020,92 +2191,566 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="3"/>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>197</v>
+      </c>
+      <c r="E94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" t="s">
+        <v>206</v>
+      </c>
+      <c r="E103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -643,18 +643,599 @@
   </si>
   <si>
     <t>Peaceful, quiet.</t>
+  </si>
+  <si>
+    <t>H,A,C,K,S</t>
+  </si>
+  <si>
+    <t>HACK</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SACK</t>
+  </si>
+  <si>
+    <t>ASH</t>
+  </si>
+  <si>
+    <t>HACKS</t>
+  </si>
+  <si>
+    <t>SHACK</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>SKA</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>D,N,K,R,I</t>
+  </si>
+  <si>
+    <t>DRINK</t>
+  </si>
+  <si>
+    <t>INK</t>
+  </si>
+  <si>
+    <t>KID</t>
+  </si>
+  <si>
+    <t>KIN</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>KIND</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t> A loud continued noise.</t>
+  </si>
+  <si>
+    <t>To swallow liquid.</t>
+  </si>
+  <si>
+    <t>Colored liquid used for writing or printing.</t>
+  </si>
+  <si>
+    <t>Child.</t>
+  </si>
+  <si>
+    <t>Relatives, family members.</t>
+  </si>
+  <si>
+    <t>To free or remove from something unwanted.</t>
+  </si>
+  <si>
+    <t>Nice, gentle; type or sort.</t>
+  </si>
+  <si>
+    <t>Inside; included.</t>
+  </si>
+  <si>
+    <t>WHEN</t>
+  </si>
+  <si>
+    <t>HEN</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>HEW</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>WINE</t>
+  </si>
+  <si>
+    <t>WHINE</t>
+  </si>
+  <si>
+    <t>W,H,E,N,I</t>
+  </si>
+  <si>
+    <t>L,A,D,Y,I</t>
+  </si>
+  <si>
+    <t>LADY</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>LID</t>
+  </si>
+  <si>
+    <t>LAID</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>AIL</t>
+  </si>
+  <si>
+    <t>AID</t>
+  </si>
+  <si>
+    <t>DIAL</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>G,I,N,R,B</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>RING</t>
+  </si>
+  <si>
+    <t>BRING</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>GRIN</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>S,E,E,K,W</t>
+  </si>
+  <si>
+    <t>SEEK</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>WEEKS</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>FLOUR</t>
+  </si>
+  <si>
+    <t>F,L,O,U,R</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>OUR</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>FOUR</t>
+  </si>
+  <si>
+    <t>FOUL</t>
+  </si>
+  <si>
+    <t>V,E,R,Y,E</t>
+  </si>
+  <si>
+    <t>VERY</t>
+  </si>
+  <si>
+    <t>VEE</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>EVERY</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>RYE</t>
+  </si>
+  <si>
+    <t>ERE</t>
+  </si>
+  <si>
+    <t>EYE</t>
+  </si>
+  <si>
+    <t>T,H,O,O,B</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>HOB</t>
+  </si>
+  <si>
+    <t>BOHO</t>
+  </si>
+  <si>
+    <t>TOO</t>
+  </si>
+  <si>
+    <t>THO</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>BOOTH</t>
+  </si>
+  <si>
+    <t>HOBO</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>HOOT</t>
+  </si>
+  <si>
+    <t>L,O,V,E,W</t>
+  </si>
+  <si>
+    <t>VOWEL</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>VOW</t>
+  </si>
+  <si>
+    <t>OWL</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>O,T,F,L,A</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>LOAF</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>OAT</t>
+  </si>
+  <si>
+    <t>FLAT</t>
+  </si>
+  <si>
+    <t>LOFT</t>
+  </si>
+  <si>
+    <t>At what time.</t>
+  </si>
+  <si>
+    <t>A female chicken.</t>
+  </si>
+  <si>
+    <t>To be victorious.</t>
+  </si>
+  <si>
+    <t>A lump or cyst on the skin.</t>
+  </si>
+  <si>
+    <t>To chop or cut something.</t>
+  </si>
+  <si>
+    <t>Recently made.</t>
+  </si>
+  <si>
+    <t>An alcoholic drink made from fermented grapes.</t>
+  </si>
+  <si>
+    <t>To complain in a high-pitched, annoying way.</t>
+  </si>
+  <si>
+    <t>A polite or formal term for a woman.</t>
+  </si>
+  <si>
+    <t>To put or place something down.</t>
+  </si>
+  <si>
+    <t>A boy or young man.</t>
+  </si>
+  <si>
+    <t>A cover or top for a container.</t>
+  </si>
+  <si>
+    <t>Past tense of “lay” – put or placed.</t>
+  </si>
+  <si>
+    <t>Happening, done, or produced every day.</t>
+  </si>
+  <si>
+    <t>A 24-hour period; daytime.</t>
+  </si>
+  <si>
+    <t>To cause pain, trouble, or illness.</t>
+  </si>
+  <si>
+    <t>Help, support; to help.</t>
+  </si>
+  <si>
+    <t>To make a phone call.</t>
+  </si>
+  <si>
+    <t>An alcoholic drink made from juniper berries.</t>
+  </si>
+  <si>
+    <t>The tip of a pen.</t>
+  </si>
+  <si>
+    <t>One of the curved bones in the chest.</t>
+  </si>
+  <si>
+    <t>Circular band worn on a finger.</t>
+  </si>
+  <si>
+    <t>To carry or take something to a place.</t>
+  </si>
+  <si>
+    <t>Equipment or setup.</t>
+  </si>
+  <si>
+    <t>To smile broadly.</t>
+  </si>
+  <si>
+    <t>A container for storing trash or waste.</t>
+  </si>
+  <si>
+    <t>Large in size.</t>
+  </si>
+  <si>
+    <t>To search for something.</t>
+  </si>
+  <si>
+    <t>To join or repair with a needle and thread.</t>
+  </si>
+  <si>
+    <t>A period of seven days.</t>
+  </si>
+  <si>
+    <t>To perceive with the eyes.</t>
+  </si>
+  <si>
+    <t>Plural of week.</t>
+  </si>
+  <si>
+    <t>The speaker and at least one other person.</t>
+  </si>
+  <si>
+    <t>A powder made by grinding grains, used for baking.</t>
+  </si>
+  <si>
+    <t>Used to indicate purpose or reason.</t>
+  </si>
+  <si>
+    <t>Belonging to or associated with us</t>
+  </si>
+  <si>
+    <t>The thick hair covering the bodies of some animals.</t>
+  </si>
+  <si>
+    <t>The number 4.</t>
+  </si>
+  <si>
+    <t>Offensive to the senses.</t>
+  </si>
+  <si>
+    <t>To a high degree.</t>
+  </si>
+  <si>
+    <t>The letter V.</t>
+  </si>
+  <si>
+    <t>To increase the running speed of an engine.</t>
+  </si>
+  <si>
+    <t>Used to refer to all members of a .</t>
+  </si>
+  <si>
+    <t>Evening.</t>
+  </si>
+  <si>
+    <t>A hardy annual grass.</t>
+  </si>
+  <si>
+    <t>Preceding in time.</t>
+  </si>
+  <si>
+    <t>The organ of sight.</t>
+  </si>
+  <si>
+    <t>A cooking surface on a stove.</t>
+  </si>
+  <si>
+    <t>A style characterized by bohemian.</t>
+  </si>
+  <si>
+    <t>Also.</t>
+  </si>
+  <si>
+    <t>Less common spelling of though.</t>
+  </si>
+  <si>
+    <t>Having a high temperature.</t>
+  </si>
+  <si>
+    <t>A software application that performs automated tasks.</t>
+  </si>
+  <si>
+    <t>A small enclosed space for a particular purpose</t>
+  </si>
+  <si>
+    <t>A homeless person who travels to find work.</t>
+  </si>
+  <si>
+    <t>The one as well as the other.</t>
+  </si>
+  <si>
+    <t>The sound made by an owl.</t>
+  </si>
+  <si>
+    <t>A speech sound made without closing the mouth.</t>
+  </si>
+  <si>
+    <t>.A deep feeling of affection.</t>
+  </si>
+  <si>
+    <t>A serious promise or pledge.</t>
+  </si>
+  <si>
+    <t>A nocturnal bird of prey with large eyes.</t>
+  </si>
+  <si>
+    <t>Not high; small in amount or level.</t>
+  </si>
+  <si>
+    <t>Having a large amount of excess flesh.</t>
+  </si>
+  <si>
+    <t>Exercise bar.</t>
+  </si>
+  <si>
+    <t>To rest or move on the surface of a liquid.</t>
+  </si>
+  <si>
+    <t>A large amount or number.</t>
+  </si>
+  <si>
+    <t>A shaped or molded mass of bread.</t>
+  </si>
+  <si>
+    <t>The second highest voice part in a 4-part chorus.</t>
+  </si>
+  <si>
+    <t>A cereal grain.</t>
+  </si>
+  <si>
+    <t>Having a level surface; not curved or raised.</t>
+  </si>
+  <si>
+    <t>An upper room or floor.</t>
+  </si>
+  <si>
+    <t>Unauthorized computer access.</t>
+  </si>
+  <si>
+    <t>A pouch in an animal or plant.</t>
+  </si>
+  <si>
+    <t>A usually rectangular-shaped bag.</t>
+  </si>
+  <si>
+    <t>Something that symbolizes grief.</t>
+  </si>
+  <si>
+    <t>A small, simple building.</t>
+  </si>
+  <si>
+    <t>Third person singular of “have.''</t>
+  </si>
+  <si>
+    <t>Plural of ''hack.''</t>
+  </si>
+  <si>
+    <t>A music genre originating in Jamaica.</t>
+  </si>
+  <si>
+    <t>To request information or help.</t>
+  </si>
+  <si>
+    <t>Money in the form of coins or banknotes.</t>
+  </si>
+  <si>
+    <t>Used to show role or function.</t>
+  </si>
+  <si>
+    <t>A type of footwear that covers the foot and ankle.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,12 +1267,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -972,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,6 +3337,1559 @@
         <v>116</v>
       </c>
     </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>388</v>
+      </c>
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="s">
+        <v>389</v>
+      </c>
+      <c r="E107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" t="s">
+        <v>393</v>
+      </c>
+      <c r="E109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" t="s">
+        <v>391</v>
+      </c>
+      <c r="E110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" t="s">
+        <v>392</v>
+      </c>
+      <c r="E111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" t="s">
+        <v>394</v>
+      </c>
+      <c r="E112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" t="s">
+        <v>395</v>
+      </c>
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>396</v>
+      </c>
+      <c r="E114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" t="s">
+        <v>397</v>
+      </c>
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" t="s">
+        <v>233</v>
+      </c>
+      <c r="E120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121" t="s">
+        <v>234</v>
+      </c>
+      <c r="E121" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" t="s">
+        <v>316</v>
+      </c>
+      <c r="E124" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E126" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D127" t="s">
+        <v>319</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128" t="s">
+        <v>320</v>
+      </c>
+      <c r="E128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129" t="s">
+        <v>321</v>
+      </c>
+      <c r="E129" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>245</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130" t="s">
+        <v>322</v>
+      </c>
+      <c r="E130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" t="s">
+        <v>324</v>
+      </c>
+      <c r="E132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>246</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D133" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>246</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" t="s">
+        <v>326</v>
+      </c>
+      <c r="E134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>22</v>
+      </c>
+      <c r="B135" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" t="s">
+        <v>327</v>
+      </c>
+      <c r="E135" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D136" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D137" t="s">
+        <v>329</v>
+      </c>
+      <c r="E137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D138" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D139" t="s">
+        <v>331</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" t="s">
+        <v>333</v>
+      </c>
+      <c r="E141" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" t="s">
+        <v>334</v>
+      </c>
+      <c r="E142" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" t="s">
+        <v>335</v>
+      </c>
+      <c r="E143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" t="s">
+        <v>336</v>
+      </c>
+      <c r="E144" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" t="s">
+        <v>337</v>
+      </c>
+      <c r="E145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" t="s">
+        <v>338</v>
+      </c>
+      <c r="E146" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D148" t="s">
+        <v>340</v>
+      </c>
+      <c r="E148" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D149" t="s">
+        <v>341</v>
+      </c>
+      <c r="E149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" t="s">
+        <v>342</v>
+      </c>
+      <c r="E150" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>24</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>343</v>
+      </c>
+      <c r="E151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" t="s">
+        <v>344</v>
+      </c>
+      <c r="E152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>24</v>
+      </c>
+      <c r="B153" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D153" t="s">
+        <v>345</v>
+      </c>
+      <c r="E153" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D154" t="s">
+        <v>346</v>
+      </c>
+      <c r="E154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>24</v>
+      </c>
+      <c r="B155" t="s">
+        <v>266</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D155" t="s">
+        <v>347</v>
+      </c>
+      <c r="E155" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>24</v>
+      </c>
+      <c r="B156" t="s">
+        <v>266</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D156" t="s">
+        <v>348</v>
+      </c>
+      <c r="E156" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>273</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157" t="s">
+        <v>349</v>
+      </c>
+      <c r="E157" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" t="s">
+        <v>350</v>
+      </c>
+      <c r="E158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>273</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D159" t="s">
+        <v>351</v>
+      </c>
+      <c r="E159" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>273</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D160" t="s">
+        <v>352</v>
+      </c>
+      <c r="E160" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D161" t="s">
+        <v>353</v>
+      </c>
+      <c r="E161" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>273</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" t="s">
+        <v>354</v>
+      </c>
+      <c r="E162" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>26</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D163" t="s">
+        <v>355</v>
+      </c>
+      <c r="E163" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" t="s">
+        <v>356</v>
+      </c>
+      <c r="E164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>26</v>
+      </c>
+      <c r="B165" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D165" t="s">
+        <v>357</v>
+      </c>
+      <c r="E165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>26</v>
+      </c>
+      <c r="B166" t="s">
+        <v>279</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D166" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167" t="s">
+        <v>279</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D167" t="s">
+        <v>359</v>
+      </c>
+      <c r="E167" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>26</v>
+      </c>
+      <c r="B168" t="s">
+        <v>279</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D168" t="s">
+        <v>360</v>
+      </c>
+      <c r="E168" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>26</v>
+      </c>
+      <c r="B169" t="s">
+        <v>279</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D169" t="s">
+        <v>361</v>
+      </c>
+      <c r="E169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>279</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D170" t="s">
+        <v>362</v>
+      </c>
+      <c r="E170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="30">
+      <c r="A171">
+        <v>27</v>
+      </c>
+      <c r="B171" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E171" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>288</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D172" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D173" t="s">
+        <v>364</v>
+      </c>
+      <c r="E173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>27</v>
+      </c>
+      <c r="B174" t="s">
+        <v>288</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D174" t="s">
+        <v>365</v>
+      </c>
+      <c r="E174" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D175" t="s">
+        <v>366</v>
+      </c>
+      <c r="E175" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>27</v>
+      </c>
+      <c r="B176" t="s">
+        <v>288</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D176" t="s">
+        <v>367</v>
+      </c>
+      <c r="E176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>27</v>
+      </c>
+      <c r="B177" t="s">
+        <v>288</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D177" t="s">
+        <v>368</v>
+      </c>
+      <c r="E177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>27</v>
+      </c>
+      <c r="B178" t="s">
+        <v>288</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D178" t="s">
+        <v>369</v>
+      </c>
+      <c r="E178" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>27</v>
+      </c>
+      <c r="B179" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D179" t="s">
+        <v>370</v>
+      </c>
+      <c r="E179" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E180" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>288</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D181" t="s">
+        <v>372</v>
+      </c>
+      <c r="E181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>300</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D182" t="s">
+        <v>373</v>
+      </c>
+      <c r="E182" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>300</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D183" t="s">
+        <v>374</v>
+      </c>
+      <c r="E183" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>300</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" t="s">
+        <v>375</v>
+      </c>
+      <c r="E184" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s">
+        <v>300</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D185" t="s">
+        <v>376</v>
+      </c>
+      <c r="E185" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>300</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D186" t="s">
+        <v>377</v>
+      </c>
+      <c r="E186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>29</v>
+      </c>
+      <c r="B187" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>306</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D188" t="s">
+        <v>379</v>
+      </c>
+      <c r="E188" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>29</v>
+      </c>
+      <c r="B189" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D189" t="s">
+        <v>380</v>
+      </c>
+      <c r="E189" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>29</v>
+      </c>
+      <c r="B190" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D190" t="s">
+        <v>381</v>
+      </c>
+      <c r="E190" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>29</v>
+      </c>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D191" t="s">
+        <v>382</v>
+      </c>
+      <c r="E191" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D192" t="s">
+        <v>383</v>
+      </c>
+      <c r="E192" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>29</v>
+      </c>
+      <c r="B193" t="s">
+        <v>306</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D193" t="s">
+        <v>384</v>
+      </c>
+      <c r="E193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>29</v>
+      </c>
+      <c r="B194" t="s">
+        <v>306</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D194" t="s">
+        <v>385</v>
+      </c>
+      <c r="E194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>29</v>
+      </c>
+      <c r="B195" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D195" t="s">
+        <v>386</v>
+      </c>
+      <c r="E195" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="3"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="551">
   <si>
     <t>id</t>
   </si>
@@ -1062,9 +1062,6 @@
     <t>To perceive with the eyes.</t>
   </si>
   <si>
-    <t>Plural of week.</t>
-  </si>
-  <si>
     <t>The speaker and at least one other person.</t>
   </si>
   <si>
@@ -1095,9 +1092,6 @@
     <t>To increase the running speed of an engine.</t>
   </si>
   <si>
-    <t>Used to refer to all members of a .</t>
-  </si>
-  <si>
     <t>Evening.</t>
   </si>
   <si>
@@ -1143,9 +1137,6 @@
     <t>A speech sound made without closing the mouth.</t>
   </si>
   <si>
-    <t>.A deep feeling of affection.</t>
-  </si>
-  <si>
     <t>A serious promise or pledge.</t>
   </si>
   <si>
@@ -1216,18 +1207,491 @@
   </si>
   <si>
     <t>A type of footwear that covers the foot and ankle.</t>
+  </si>
+  <si>
+    <t>H,S,B,U,L</t>
+  </si>
+  <si>
+    <t>BUSH</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>HUB</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>LUSH</t>
+  </si>
+  <si>
+    <t>BLUSH</t>
+  </si>
+  <si>
+    <t>C,Y,D,N,A</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>CANDY</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>H,T,I,S,G</t>
+  </si>
+  <si>
+    <t>SIGH</t>
+  </si>
+  <si>
+    <t>THIS</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>HITS</t>
+  </si>
+  <si>
+    <t>SIGHT</t>
+  </si>
+  <si>
+    <t>HIS</t>
+  </si>
+  <si>
+    <t>T,R,N,P,I</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>RIP</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>B,L,E,N,D</t>
+  </si>
+  <si>
+    <t>BLEND</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>BEND</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LEND</t>
+  </si>
+  <si>
+    <t>R,P,W,A</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>WAR</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>PAW</t>
+  </si>
+  <si>
+    <t>WRAP</t>
+  </si>
+  <si>
+    <t>L,L,S,T,A</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>SALT</t>
+  </si>
+  <si>
+    <t>STALL</t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t>TALL</t>
+  </si>
+  <si>
+    <t>W,F,E,R,E</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>FEW</t>
+  </si>
+  <si>
+    <t>WERE</t>
+  </si>
+  <si>
+    <t>REEF</t>
+  </si>
+  <si>
+    <t>FEE</t>
+  </si>
+  <si>
+    <t>FEWER</t>
+  </si>
+  <si>
+    <t>S,P,I,S,H</t>
+  </si>
+  <si>
+    <t>SHIPS</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>O,G,N,A,L</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>LAG</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>ALONG</t>
+  </si>
+  <si>
+    <t>T,M,P,Y,E</t>
+  </si>
+  <si>
+    <t>YET</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>A,L,P,P,E</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>PLEA</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>LEAP</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>PEA</t>
+  </si>
+  <si>
+    <t>PALE</t>
+  </si>
+  <si>
+    <t>A short, thick plant.</t>
+  </si>
+  <si>
+    <t>Substitute.</t>
+  </si>
+  <si>
+    <t>he central part of a circular object.</t>
+  </si>
+  <si>
+    <t>A large vehicle for carrying many passengers.</t>
+  </si>
+  <si>
+    <t>Having rich growth of plants.</t>
+  </si>
+  <si>
+    <t>To become red in the face from shame or shyness.</t>
+  </si>
+  <si>
+    <t>Used to join words or ideas.</t>
+  </si>
+  <si>
+    <t>Sweet food made with sugar.</t>
+  </si>
+  <si>
+    <t>A 24-hour period.</t>
+  </si>
+  <si>
+    <t>One or some, no matter which.</t>
+  </si>
+  <si>
+    <t>To be able to do something.</t>
+  </si>
+  <si>
+    <t>To exhale audibly in relief, sadness, or tiredness.</t>
+  </si>
+  <si>
+    <t>Referring to a specific thing nearby.</t>
+  </si>
+  <si>
+    <t>To strike someone or something.</t>
+  </si>
+  <si>
+    <t>To be seated.</t>
+  </si>
+  <si>
+    <t>Strikes someone or something.</t>
+  </si>
+  <si>
+    <t>The ability to see.</t>
+  </si>
+  <si>
+    <t>Belonging to a male person.</t>
+  </si>
+  <si>
+    <t>A journey from one place to another.</t>
+  </si>
+  <si>
+    <t>A small sharp object used to fasten things.</t>
+  </si>
+  <si>
+    <t>To tear something quickly or forcefully.</t>
+  </si>
+  <si>
+    <t>A hole, shaft, or cavity in the ground.</t>
+  </si>
+  <si>
+    <t>A metal container or the metal itself.</t>
+  </si>
+  <si>
+    <t>A small piece of advice or suggestion.</t>
+  </si>
+  <si>
+    <t>To produce text or images on paper.</t>
+  </si>
+  <si>
+    <t>To mix things together.</t>
+  </si>
+  <si>
+    <t>A piece of furniture for sleeping.</t>
+  </si>
+  <si>
+    <t>A hidden or secluded place.</t>
+  </si>
+  <si>
+    <t>To shape something into a curve.</t>
+  </si>
+  <si>
+    <t>To guide or show the way.</t>
+  </si>
+  <si>
+    <t>To give something temporarily.</t>
+  </si>
+  <si>
+    <t>The final part of something.</t>
+  </si>
+  <si>
+    <t>Not cooked or processed.</t>
+  </si>
+  <si>
+    <t>A state of armed conflict between groups</t>
+  </si>
+  <si>
+    <t>A music style with rhythmic speech.</t>
+  </si>
+  <si>
+    <t>The foot of an animal with claws.</t>
+  </si>
+  <si>
+    <t>To cover something by folding or winding it.</t>
+  </si>
+  <si>
+    <t>The whole quantity or extent of something.</t>
+  </si>
+  <si>
+    <t>A white substance used to season or preserve food.</t>
+  </si>
+  <si>
+    <t>A small booth or compartment.</t>
+  </si>
+  <si>
+    <t>To continue for a period of time.</t>
+  </si>
+  <si>
+    <t>Having great height.</t>
+  </si>
+  <si>
+    <t>Not under control or cost.</t>
+  </si>
+  <si>
+    <t>A small number of.</t>
+  </si>
+  <si>
+    <t>Past tense of be for plural subjects.</t>
+  </si>
+  <si>
+    <t>A ridge of rocks or coral in the sea.</t>
+  </si>
+  <si>
+    <t>A payment for services.</t>
+  </si>
+  <si>
+    <t>Boats used for traveling on water.</t>
+  </si>
+  <si>
+    <t>SIPS</t>
+  </si>
+  <si>
+    <t>The side of the body between waist and thigh.</t>
+  </si>
+  <si>
+    <t>A small mouthful of a drink.</t>
+  </si>
+  <si>
+    <t>Measuring a great distance from end to end.</t>
+  </si>
+  <si>
+    <t>Earlier than now.</t>
+  </si>
+  <si>
+    <t>A bulky piece of a fallen tree.</t>
+  </si>
+  <si>
+    <t>To fall behind or delay.</t>
+  </si>
+  <si>
+    <t>Something lent, especially money.</t>
+  </si>
+  <si>
+    <t>Something aimed for.</t>
+  </si>
+  <si>
+    <t>Moving in a line or in company with.</t>
+  </si>
+  <si>
+    <t>Past tense of ''meet'' (to come together).</t>
+  </si>
+  <si>
+    <t>Plural of ''week.''</t>
+  </si>
+  <si>
+    <t>Used to refer to all members of a group.</t>
+  </si>
+  <si>
+    <t>A deep feeling of affection.</t>
+  </si>
+  <si>
+    <t>Past tense and past participle of "sit.''</t>
+  </si>
+  <si>
+    <t>A smaller number of things.</t>
+  </si>
+  <si>
+    <t>Up to now; nevertheless.</t>
+  </si>
+  <si>
+    <t>Containing nothing.</t>
+  </si>
+  <si>
+    <t>A category of things with common features.</t>
+  </si>
+  <si>
+    <t>An animal kept for companionship.</t>
+  </si>
+  <si>
+    <t>A large primate without a tail.</t>
+  </si>
+  <si>
+    <t>A serious request.</t>
+  </si>
+  <si>
+    <t>A type of beer.</t>
+  </si>
+  <si>
+    <t>To jump a long distance or height.</t>
+  </si>
+  <si>
+    <t>The front of the thighs when sitting.</t>
+  </si>
+  <si>
+    <t>A round fruit with red, green, or yellow skin.</t>
+  </si>
+  <si>
+    <t>A small round green seed eaten as a vegetable</t>
+  </si>
+  <si>
+    <t>A friend or companion.</t>
+  </si>
+  <si>
+    <t>Light in color or lacking brightness.</t>
+  </si>
+  <si>
+    <t>Small amounts of liquid taken into the mouth.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,16 +1731,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,27 +2014,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1603,7 +2068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1620,7 +2085,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1637,7 +2102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1654,7 +2119,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1671,7 +2136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1688,7 +2153,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1705,7 +2170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1722,7 +2187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1739,7 +2204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1756,7 +2221,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1773,7 +2238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1790,7 +2255,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1807,7 +2272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1824,7 +2289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1841,7 +2306,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1858,7 +2323,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1875,7 +2340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1892,7 +2357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1909,7 +2374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1926,7 +2391,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1943,7 +2408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1960,7 +2425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1977,7 +2442,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1994,7 +2459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2011,7 +2476,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2028,7 +2493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2045,7 +2510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2062,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2079,7 +2544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2096,7 +2561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2113,7 +2578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2130,7 +2595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -2147,7 +2612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -2164,7 +2629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -2181,7 +2646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -2198,7 +2663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2215,7 +2680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2232,7 +2697,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2249,7 +2714,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -2266,7 +2731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -2283,7 +2748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -2300,7 +2765,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -2317,7 +2782,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -2334,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -2351,7 +2816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2368,7 +2833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -2385,7 +2850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -2402,7 +2867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -2419,7 +2884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11</v>
       </c>
@@ -2436,7 +2901,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2453,7 +2918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -2470,7 +2935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -2487,7 +2952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
@@ -2504,7 +2969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
@@ -2521,7 +2986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -2538,7 +3003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -2555,7 +3020,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -2572,7 +3037,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
@@ -2589,7 +3054,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
@@ -2606,7 +3071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
@@ -2623,7 +3088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>13</v>
       </c>
@@ -2640,7 +3105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2657,7 +3122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -2674,7 +3139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -2691,7 +3156,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -2708,7 +3173,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -2725,7 +3190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -2742,7 +3207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -2759,7 +3224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -2776,7 +3241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -2793,7 +3258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -2810,7 +3275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15</v>
       </c>
@@ -2827,7 +3292,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15</v>
       </c>
@@ -2844,7 +3309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -2861,7 +3326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15</v>
       </c>
@@ -2878,7 +3343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15</v>
       </c>
@@ -2895,7 +3360,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -2912,7 +3377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -2929,7 +3394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -2946,7 +3411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -2963,7 +3428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16</v>
       </c>
@@ -2980,7 +3445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -2997,7 +3462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -3014,7 +3479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -3031,7 +3496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16</v>
       </c>
@@ -3048,7 +3513,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -3065,7 +3530,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -3082,7 +3547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -3099,7 +3564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>17</v>
       </c>
@@ -3116,7 +3581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>17</v>
       </c>
@@ -3133,7 +3598,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>17</v>
       </c>
@@ -3150,7 +3615,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>17</v>
       </c>
@@ -3167,7 +3632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -3184,7 +3649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>17</v>
       </c>
@@ -3201,7 +3666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18</v>
       </c>
@@ -3218,7 +3683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>18</v>
       </c>
@@ -3235,7 +3700,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3252,7 +3717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
@@ -3269,7 +3734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>18</v>
       </c>
@@ -3286,7 +3751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18</v>
       </c>
@@ -3303,7 +3768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18</v>
       </c>
@@ -3320,7 +3785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18</v>
       </c>
@@ -3337,7 +3802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19</v>
       </c>
@@ -3348,13 +3813,13 @@
         <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E105" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19</v>
       </c>
@@ -3365,13 +3830,13 @@
         <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E106" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>19</v>
       </c>
@@ -3382,13 +3847,13 @@
         <v>211</v>
       </c>
       <c r="D107" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E107" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>19</v>
       </c>
@@ -3399,13 +3864,13 @@
         <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19</v>
       </c>
@@ -3416,13 +3881,13 @@
         <v>213</v>
       </c>
       <c r="D109" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E109" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19</v>
       </c>
@@ -3433,13 +3898,13 @@
         <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E110" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>19</v>
       </c>
@@ -3450,13 +3915,13 @@
         <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E111" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
@@ -3467,13 +3932,13 @@
         <v>216</v>
       </c>
       <c r="D112" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19</v>
       </c>
@@ -3484,13 +3949,13 @@
         <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E113" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -3501,13 +3966,13 @@
         <v>218</v>
       </c>
       <c r="D114" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E114" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19</v>
       </c>
@@ -3518,13 +3983,13 @@
         <v>219</v>
       </c>
       <c r="D115" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E115" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
@@ -3541,7 +4006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20</v>
       </c>
@@ -3558,7 +4023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
@@ -3575,7 +4040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20</v>
       </c>
@@ -3592,7 +4057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20</v>
       </c>
@@ -3609,7 +4074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
@@ -3626,7 +4091,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20</v>
       </c>
@@ -3643,7 +4108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20</v>
       </c>
@@ -3660,7 +4125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>21</v>
       </c>
@@ -3677,7 +4142,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>21</v>
       </c>
@@ -3694,7 +4159,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>21</v>
       </c>
@@ -3711,7 +4176,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>21</v>
       </c>
@@ -3728,7 +4193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>21</v>
       </c>
@@ -3745,7 +4210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>21</v>
       </c>
@@ -3762,7 +4227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>21</v>
       </c>
@@ -3779,7 +4244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>21</v>
       </c>
@@ -3796,7 +4261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>22</v>
       </c>
@@ -3813,7 +4278,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>22</v>
       </c>
@@ -3830,7 +4295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>22</v>
       </c>
@@ -3847,7 +4312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>22</v>
       </c>
@@ -3864,7 +4329,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>22</v>
       </c>
@@ -3881,7 +4346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>22</v>
       </c>
@@ -3898,7 +4363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22</v>
       </c>
@@ -3915,7 +4380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22</v>
       </c>
@@ -3932,7 +4397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22</v>
       </c>
@@ -3949,7 +4414,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22</v>
       </c>
@@ -3966,7 +4431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>23</v>
       </c>
@@ -3983,7 +4448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>23</v>
       </c>
@@ -4000,7 +4465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>23</v>
       </c>
@@ -4017,7 +4482,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23</v>
       </c>
@@ -4034,7 +4499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>23</v>
       </c>
@@ -4051,7 +4516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>23</v>
       </c>
@@ -4068,7 +4533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>23</v>
       </c>
@@ -4085,7 +4550,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>23</v>
       </c>
@@ -4102,7 +4567,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
@@ -4119,7 +4584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -4136,7 +4601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -4153,7 +4618,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -4170,7 +4635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -4187,7 +4652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -4198,13 +4663,13 @@
         <v>270</v>
       </c>
       <c r="D155" t="s">
-        <v>347</v>
+        <v>532</v>
       </c>
       <c r="E155" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -4215,13 +4680,13 @@
         <v>271</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E156" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25</v>
       </c>
@@ -4232,13 +4697,13 @@
         <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E157" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25</v>
       </c>
@@ -4249,13 +4714,13 @@
         <v>274</v>
       </c>
       <c r="D158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E158" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>25</v>
       </c>
@@ -4266,13 +4731,13 @@
         <v>275</v>
       </c>
       <c r="D159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E159" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>25</v>
       </c>
@@ -4283,13 +4748,13 @@
         <v>276</v>
       </c>
       <c r="D160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E160" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>25</v>
       </c>
@@ -4300,13 +4765,13 @@
         <v>277</v>
       </c>
       <c r="D161" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E161" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25</v>
       </c>
@@ -4317,13 +4782,13 @@
         <v>278</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E162" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>26</v>
       </c>
@@ -4334,13 +4799,13 @@
         <v>280</v>
       </c>
       <c r="D163" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E163" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26</v>
       </c>
@@ -4351,13 +4816,13 @@
         <v>281</v>
       </c>
       <c r="D164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E164" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>26</v>
       </c>
@@ -4368,30 +4833,30 @@
         <v>282</v>
       </c>
       <c r="D165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E165" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>26</v>
       </c>
       <c r="B166" t="s">
         <v>279</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="5" t="s">
         <v>283</v>
       </c>
       <c r="D166" t="s">
-        <v>358</v>
+        <v>533</v>
       </c>
       <c r="E166" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>26</v>
       </c>
@@ -4402,13 +4867,13 @@
         <v>284</v>
       </c>
       <c r="D167" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E167" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>26</v>
       </c>
@@ -4419,13 +4884,13 @@
         <v>285</v>
       </c>
       <c r="D168" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E168" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>26</v>
       </c>
@@ -4436,13 +4901,13 @@
         <v>286</v>
       </c>
       <c r="D169" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E169" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>26</v>
       </c>
@@ -4453,13 +4918,13 @@
         <v>287</v>
       </c>
       <c r="D170" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E170" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="30">
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>27</v>
       </c>
@@ -4470,13 +4935,13 @@
         <v>289</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E171" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>27</v>
       </c>
@@ -4487,13 +4952,13 @@
         <v>290</v>
       </c>
       <c r="D172" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E172" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>27</v>
       </c>
@@ -4504,13 +4969,13 @@
         <v>291</v>
       </c>
       <c r="D173" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E173" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>27</v>
       </c>
@@ -4521,13 +4986,13 @@
         <v>292</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E174" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27</v>
       </c>
@@ -4538,13 +5003,13 @@
         <v>293</v>
       </c>
       <c r="D175" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E175" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>27</v>
       </c>
@@ -4555,13 +5020,13 @@
         <v>294</v>
       </c>
       <c r="D176" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E176" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27</v>
       </c>
@@ -4572,13 +5037,13 @@
         <v>295</v>
       </c>
       <c r="D177" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E177" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>27</v>
       </c>
@@ -4589,13 +5054,13 @@
         <v>296</v>
       </c>
       <c r="D178" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E178" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>27</v>
       </c>
@@ -4606,13 +5071,13 @@
         <v>297</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E179" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>27</v>
       </c>
@@ -4623,13 +5088,13 @@
         <v>298</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E180" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>27</v>
       </c>
@@ -4640,13 +5105,13 @@
         <v>299</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E181" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>28</v>
       </c>
@@ -4657,13 +5122,13 @@
         <v>301</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E182" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>28</v>
       </c>
@@ -4674,13 +5139,13 @@
         <v>302</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>534</v>
       </c>
       <c r="E183" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -4691,13 +5156,13 @@
         <v>303</v>
       </c>
       <c r="D184" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E184" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>28</v>
       </c>
@@ -4708,13 +5173,13 @@
         <v>304</v>
       </c>
       <c r="D185" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E185" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28</v>
       </c>
@@ -4725,13 +5190,13 @@
         <v>305</v>
       </c>
       <c r="D186" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E186" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>29</v>
       </c>
@@ -4742,13 +5207,13 @@
         <v>307</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E187" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>29</v>
       </c>
@@ -4759,13 +5224,13 @@
         <v>308</v>
       </c>
       <c r="D188" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E188" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>29</v>
       </c>
@@ -4776,13 +5241,13 @@
         <v>309</v>
       </c>
       <c r="D189" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E189" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>29</v>
       </c>
@@ -4793,13 +5258,13 @@
         <v>310</v>
       </c>
       <c r="D190" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E190" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>29</v>
       </c>
@@ -4810,13 +5275,13 @@
         <v>311</v>
       </c>
       <c r="D191" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E191" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>29</v>
       </c>
@@ -4827,13 +5292,13 @@
         <v>312</v>
       </c>
       <c r="D192" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E192" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>29</v>
       </c>
@@ -4844,13 +5309,13 @@
         <v>313</v>
       </c>
       <c r="D193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E193" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>29</v>
       </c>
@@ -4861,13 +5326,13 @@
         <v>314</v>
       </c>
       <c r="D194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E194" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>29</v>
       </c>
@@ -4878,17 +5343,1286 @@
         <v>315</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E195" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="3"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>30</v>
+      </c>
+      <c r="B196" t="s">
+        <v>396</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D196" t="s">
+        <v>473</v>
+      </c>
+      <c r="E196" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>30</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D197" t="s">
+        <v>474</v>
+      </c>
+      <c r="E197" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>30</v>
+      </c>
+      <c r="B198" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D198" t="s">
+        <v>475</v>
+      </c>
+      <c r="E198" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>30</v>
+      </c>
+      <c r="B199" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D199" t="s">
+        <v>476</v>
+      </c>
+      <c r="E199" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>30</v>
+      </c>
+      <c r="B200" t="s">
+        <v>396</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D200" t="s">
+        <v>477</v>
+      </c>
+      <c r="E200" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>30</v>
+      </c>
+      <c r="B201" t="s">
+        <v>396</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D201" t="s">
+        <v>478</v>
+      </c>
+      <c r="E201" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>31</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D202" t="s">
+        <v>479</v>
+      </c>
+      <c r="E202" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>31</v>
+      </c>
+      <c r="B203" t="s">
+        <v>403</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D203" t="s">
+        <v>480</v>
+      </c>
+      <c r="E203" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>31</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D204" t="s">
+        <v>481</v>
+      </c>
+      <c r="E204" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>31</v>
+      </c>
+      <c r="B205" t="s">
+        <v>403</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205" t="s">
+        <v>482</v>
+      </c>
+      <c r="E205" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>31</v>
+      </c>
+      <c r="B206" t="s">
+        <v>403</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D206" t="s">
+        <v>483</v>
+      </c>
+      <c r="E206" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>32</v>
+      </c>
+      <c r="B207" t="s">
+        <v>408</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D207" t="s">
+        <v>484</v>
+      </c>
+      <c r="E207" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>32</v>
+      </c>
+      <c r="B208" t="s">
+        <v>408</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D208" t="s">
+        <v>485</v>
+      </c>
+      <c r="E208" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>32</v>
+      </c>
+      <c r="B209" t="s">
+        <v>408</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D209" t="s">
+        <v>486</v>
+      </c>
+      <c r="E209" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>32</v>
+      </c>
+      <c r="B210" t="s">
+        <v>408</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D210" t="s">
+        <v>487</v>
+      </c>
+      <c r="E210" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>32</v>
+      </c>
+      <c r="B211" t="s">
+        <v>408</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D211" t="s">
+        <v>488</v>
+      </c>
+      <c r="E211" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>32</v>
+      </c>
+      <c r="B212" t="s">
+        <v>408</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D212" t="s">
+        <v>489</v>
+      </c>
+      <c r="E212" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>32</v>
+      </c>
+      <c r="B213" t="s">
+        <v>408</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" t="s">
+        <v>490</v>
+      </c>
+      <c r="E213" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>33</v>
+      </c>
+      <c r="B214" t="s">
+        <v>416</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D214" t="s">
+        <v>491</v>
+      </c>
+      <c r="E214" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>33</v>
+      </c>
+      <c r="B215" t="s">
+        <v>416</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>492</v>
+      </c>
+      <c r="E215" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>33</v>
+      </c>
+      <c r="B216" t="s">
+        <v>416</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D216" t="s">
+        <v>493</v>
+      </c>
+      <c r="E216" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>33</v>
+      </c>
+      <c r="B217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D217" t="s">
+        <v>494</v>
+      </c>
+      <c r="E217" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>33</v>
+      </c>
+      <c r="B218" t="s">
+        <v>416</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D218" t="s">
+        <v>495</v>
+      </c>
+      <c r="E218" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>33</v>
+      </c>
+      <c r="B219" t="s">
+        <v>416</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" t="s">
+        <v>496</v>
+      </c>
+      <c r="E219" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>33</v>
+      </c>
+      <c r="B220" t="s">
+        <v>416</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D220" t="s">
+        <v>497</v>
+      </c>
+      <c r="E220" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>34</v>
+      </c>
+      <c r="B221" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D221" t="s">
+        <v>498</v>
+      </c>
+      <c r="E221" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>34</v>
+      </c>
+      <c r="B222" t="s">
+        <v>424</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D222" t="s">
+        <v>499</v>
+      </c>
+      <c r="E222" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>34</v>
+      </c>
+      <c r="B223" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223" t="s">
+        <v>500</v>
+      </c>
+      <c r="E223" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>34</v>
+      </c>
+      <c r="B224" t="s">
+        <v>424</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D224" t="s">
+        <v>501</v>
+      </c>
+      <c r="E224" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>34</v>
+      </c>
+      <c r="B225" t="s">
+        <v>424</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D225" t="s">
+        <v>502</v>
+      </c>
+      <c r="E225" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>34</v>
+      </c>
+      <c r="B226" t="s">
+        <v>424</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D226" t="s">
+        <v>503</v>
+      </c>
+      <c r="E226" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>34</v>
+      </c>
+      <c r="B227" t="s">
+        <v>424</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>504</v>
+      </c>
+      <c r="E227" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>35</v>
+      </c>
+      <c r="B228" t="s">
+        <v>430</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D228" t="s">
+        <v>505</v>
+      </c>
+      <c r="E228" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>35</v>
+      </c>
+      <c r="B229" t="s">
+        <v>430</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D229" t="s">
+        <v>506</v>
+      </c>
+      <c r="E229" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>35</v>
+      </c>
+      <c r="B230" t="s">
+        <v>430</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D230" t="s">
+        <v>507</v>
+      </c>
+      <c r="E230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>35</v>
+      </c>
+      <c r="B231" t="s">
+        <v>430</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D231" t="s">
+        <v>508</v>
+      </c>
+      <c r="E231" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>35</v>
+      </c>
+      <c r="B232" t="s">
+        <v>430</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D232" t="s">
+        <v>509</v>
+      </c>
+      <c r="E232" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>36</v>
+      </c>
+      <c r="B233" t="s">
+        <v>436</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D233" t="s">
+        <v>510</v>
+      </c>
+      <c r="E233" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>36</v>
+      </c>
+      <c r="B234" t="s">
+        <v>436</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D234" t="s">
+        <v>511</v>
+      </c>
+      <c r="E234" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>36</v>
+      </c>
+      <c r="B235" t="s">
+        <v>436</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235" t="s">
+        <v>535</v>
+      </c>
+      <c r="E235" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>36</v>
+      </c>
+      <c r="B236" t="s">
+        <v>436</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D236" t="s">
+        <v>512</v>
+      </c>
+      <c r="E236" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>36</v>
+      </c>
+      <c r="B237" t="s">
+        <v>436</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D237" t="s">
+        <v>513</v>
+      </c>
+      <c r="E237" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>36</v>
+      </c>
+      <c r="B238" t="s">
+        <v>436</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D238" t="s">
+        <v>514</v>
+      </c>
+      <c r="E238" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>37</v>
+      </c>
+      <c r="B239" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D239" t="s">
+        <v>515</v>
+      </c>
+      <c r="E239" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>37</v>
+      </c>
+      <c r="B240" t="s">
+        <v>442</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D240" t="s">
+        <v>516</v>
+      </c>
+      <c r="E240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>37</v>
+      </c>
+      <c r="B241" t="s">
+        <v>442</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D241" t="s">
+        <v>517</v>
+      </c>
+      <c r="E241" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>37</v>
+      </c>
+      <c r="B242" t="s">
+        <v>442</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D242" t="s">
+        <v>518</v>
+      </c>
+      <c r="E242" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>37</v>
+      </c>
+      <c r="B243" t="s">
+        <v>442</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D243" t="s">
+        <v>519</v>
+      </c>
+      <c r="E243" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>37</v>
+      </c>
+      <c r="B244" t="s">
+        <v>442</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D244" t="s">
+        <v>536</v>
+      </c>
+      <c r="E244" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>38</v>
+      </c>
+      <c r="B245" t="s">
+        <v>449</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D245" t="s">
+        <v>520</v>
+      </c>
+      <c r="E245" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>38</v>
+      </c>
+      <c r="B246" t="s">
+        <v>449</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D246" t="s">
+        <v>490</v>
+      </c>
+      <c r="E246" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>38</v>
+      </c>
+      <c r="B247" t="s">
+        <v>449</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D247" t="s">
+        <v>550</v>
+      </c>
+      <c r="E247" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>38</v>
+      </c>
+      <c r="B248" t="s">
+        <v>449</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D248" t="s">
+        <v>522</v>
+      </c>
+      <c r="E248" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>38</v>
+      </c>
+      <c r="B249" t="s">
+        <v>449</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D249" t="s">
+        <v>523</v>
+      </c>
+      <c r="E249" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>39</v>
+      </c>
+      <c r="B250" t="s">
+        <v>453</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D250" t="s">
+        <v>524</v>
+      </c>
+      <c r="E250" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>39</v>
+      </c>
+      <c r="B251" t="s">
+        <v>453</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D251" t="s">
+        <v>525</v>
+      </c>
+      <c r="E251" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>39</v>
+      </c>
+      <c r="B252" t="s">
+        <v>453</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D252" t="s">
+        <v>526</v>
+      </c>
+      <c r="E252" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>39</v>
+      </c>
+      <c r="B253" t="s">
+        <v>453</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D253" t="s">
+        <v>527</v>
+      </c>
+      <c r="E253" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>39</v>
+      </c>
+      <c r="B254" t="s">
+        <v>453</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D254" t="s">
+        <v>528</v>
+      </c>
+      <c r="E254" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>39</v>
+      </c>
+      <c r="B255" t="s">
+        <v>453</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D255" t="s">
+        <v>529</v>
+      </c>
+      <c r="E255" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>39</v>
+      </c>
+      <c r="B256" t="s">
+        <v>453</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D256" t="s">
+        <v>530</v>
+      </c>
+      <c r="E256" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>40</v>
+      </c>
+      <c r="B257" t="s">
+        <v>460</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" t="s">
+        <v>531</v>
+      </c>
+      <c r="E257" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>40</v>
+      </c>
+      <c r="B258" t="s">
+        <v>460</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D258" t="s">
+        <v>537</v>
+      </c>
+      <c r="E258" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>40</v>
+      </c>
+      <c r="B259" t="s">
+        <v>460</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D259" t="s">
+        <v>538</v>
+      </c>
+      <c r="E259" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>40</v>
+      </c>
+      <c r="B260" t="s">
+        <v>460</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D260" t="s">
+        <v>539</v>
+      </c>
+      <c r="E260" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>40</v>
+      </c>
+      <c r="B261" t="s">
+        <v>460</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D261" t="s">
+        <v>540</v>
+      </c>
+      <c r="E261" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>41</v>
+      </c>
+      <c r="B262" t="s">
+        <v>465</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D262" t="s">
+        <v>541</v>
+      </c>
+      <c r="E262" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>41</v>
+      </c>
+      <c r="B263" t="s">
+        <v>465</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D263" t="s">
+        <v>542</v>
+      </c>
+      <c r="E263" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>41</v>
+      </c>
+      <c r="B264" t="s">
+        <v>465</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D264" t="s">
+        <v>543</v>
+      </c>
+      <c r="E264" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>41</v>
+      </c>
+      <c r="B265" t="s">
+        <v>465</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D265" t="s">
+        <v>544</v>
+      </c>
+      <c r="E265" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>41</v>
+      </c>
+      <c r="B266" t="s">
+        <v>465</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D266" t="s">
+        <v>545</v>
+      </c>
+      <c r="E266" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>41</v>
+      </c>
+      <c r="B267" t="s">
+        <v>465</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D267" t="s">
+        <v>546</v>
+      </c>
+      <c r="E267" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>41</v>
+      </c>
+      <c r="B268" t="s">
+        <v>465</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D268" t="s">
+        <v>547</v>
+      </c>
+      <c r="E268" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>41</v>
+      </c>
+      <c r="B269" t="s">
+        <v>465</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D269" t="s">
+        <v>548</v>
+      </c>
+      <c r="E269" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>41</v>
+      </c>
+      <c r="B270" t="s">
+        <v>465</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D270" t="s">
+        <v>549</v>
+      </c>
+      <c r="E270" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="636">
   <si>
     <t>id</t>
   </si>
@@ -1672,18 +1672,281 @@
   </si>
   <si>
     <t>Small amounts of liquid taken into the mouth.</t>
+  </si>
+  <si>
+    <t>K,A,N,T,H</t>
+  </si>
+  <si>
+    <t>THANK</t>
+  </si>
+  <si>
+    <t>TANK</t>
+  </si>
+  <si>
+    <t>E,U,T,R,C</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CURE</t>
+  </si>
+  <si>
+    <t>CUTER</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>RUE</t>
+  </si>
+  <si>
+    <t>CUTE</t>
+  </si>
+  <si>
+    <t>T,G,E,A</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>F,I,S,T,R</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>FITS</t>
+  </si>
+  <si>
+    <t>FIST</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>STIR</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>RIFT</t>
+  </si>
+  <si>
+    <t>P,R,H,O,C</t>
+  </si>
+  <si>
+    <t>CHOP</t>
+  </si>
+  <si>
+    <t>CROP</t>
+  </si>
+  <si>
+    <t>PORCH</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>HOP</t>
+  </si>
+  <si>
+    <t>T,O,F,N,E</t>
+  </si>
+  <si>
+    <t>FONT</t>
+  </si>
+  <si>
+    <t>OFTEN</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TOE</t>
+  </si>
+  <si>
+    <t>TONE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>S,H,U,R,B</t>
+  </si>
+  <si>
+    <t>RUSH</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>BRUSH</t>
+  </si>
+  <si>
+    <t>S,S,R,B,A</t>
+  </si>
+  <si>
+    <t>BARS</t>
+  </si>
+  <si>
+    <t>BASS</t>
+  </si>
+  <si>
+    <t>BRASS</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>D,L,C,O,U</t>
+  </si>
+  <si>
+    <t>LOUD</t>
+  </si>
+  <si>
+    <t>CLOUD</t>
+  </si>
+  <si>
+    <t>COLD</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COULD</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>H,D,I,U,M</t>
+  </si>
+  <si>
+    <t>HUM</t>
+  </si>
+  <si>
+    <t>HIM</t>
+  </si>
+  <si>
+    <t>HUMID</t>
+  </si>
+  <si>
+    <t>HID</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>MUD</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>C,R,A,K,T</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>TRACK</t>
+  </si>
+  <si>
+    <t>RACK</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>H,S,U,E,O</t>
+  </si>
+  <si>
+    <t>SUE</t>
+  </si>
+  <si>
+    <t>HOSE</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>HOUSE</t>
+  </si>
+  <si>
+    <t>SHOE</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>G,A,R,E,N</t>
+  </si>
+  <si>
+    <t>EARN</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>RAGE</t>
+  </si>
+  <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>GEAR</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>RANG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1731,16 +1994,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,7 +2066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1837,7 +2101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2022,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,6 +6888,1252 @@
         <v>116</v>
       </c>
     </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>42</v>
+      </c>
+      <c r="B271" t="s">
+        <v>551</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E271" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>42</v>
+      </c>
+      <c r="B272" t="s">
+        <v>551</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E272" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>42</v>
+      </c>
+      <c r="B273" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>42</v>
+      </c>
+      <c r="B274" t="s">
+        <v>551</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E274" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>42</v>
+      </c>
+      <c r="B275" t="s">
+        <v>551</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>43</v>
+      </c>
+      <c r="B276" t="s">
+        <v>554</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E276" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>43</v>
+      </c>
+      <c r="B277" t="s">
+        <v>554</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E277" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>43</v>
+      </c>
+      <c r="B278" t="s">
+        <v>554</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E278" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>43</v>
+      </c>
+      <c r="B279" t="s">
+        <v>554</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E279" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>43</v>
+      </c>
+      <c r="B280" t="s">
+        <v>554</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E280" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>43</v>
+      </c>
+      <c r="B281" t="s">
+        <v>554</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E281" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>554</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E282" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>44</v>
+      </c>
+      <c r="B283" t="s">
+        <v>562</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E283" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>44</v>
+      </c>
+      <c r="B284" t="s">
+        <v>562</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>44</v>
+      </c>
+      <c r="B285" t="s">
+        <v>562</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E285" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>44</v>
+      </c>
+      <c r="B286" t="s">
+        <v>562</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E286" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>44</v>
+      </c>
+      <c r="B287" t="s">
+        <v>562</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E287" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>44</v>
+      </c>
+      <c r="B288" t="s">
+        <v>562</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E288" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>44</v>
+      </c>
+      <c r="B289" t="s">
+        <v>562</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E289" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
+        <v>566</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E290" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>566</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E291" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>566</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E292" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>566</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E293" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>566</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E294" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>45</v>
+      </c>
+      <c r="B295" t="s">
+        <v>566</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="E295" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>566</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E296" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>566</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E297" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>46</v>
+      </c>
+      <c r="B298" t="s">
+        <v>574</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E298" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>46</v>
+      </c>
+      <c r="B299" t="s">
+        <v>574</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E299" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>46</v>
+      </c>
+      <c r="B300" t="s">
+        <v>574</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E300" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>46</v>
+      </c>
+      <c r="B301" t="s">
+        <v>574</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E301" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>46</v>
+      </c>
+      <c r="B302" t="s">
+        <v>574</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="E302" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>47</v>
+      </c>
+      <c r="B303" t="s">
+        <v>580</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>47</v>
+      </c>
+      <c r="B304" t="s">
+        <v>580</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E304" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>47</v>
+      </c>
+      <c r="B305" t="s">
+        <v>580</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E305" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>47</v>
+      </c>
+      <c r="B306" t="s">
+        <v>580</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>47</v>
+      </c>
+      <c r="B307" t="s">
+        <v>580</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E307" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>47</v>
+      </c>
+      <c r="B308" t="s">
+        <v>580</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E308" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>47</v>
+      </c>
+      <c r="B309" t="s">
+        <v>580</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E309" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>47</v>
+      </c>
+      <c r="B310" t="s">
+        <v>580</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E310" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>47</v>
+      </c>
+      <c r="B311" t="s">
+        <v>580</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E311" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>48</v>
+      </c>
+      <c r="B312" t="s">
+        <v>587</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E312" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>48</v>
+      </c>
+      <c r="B313" t="s">
+        <v>587</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E313" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>48</v>
+      </c>
+      <c r="B314" t="s">
+        <v>587</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E314" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>48</v>
+      </c>
+      <c r="B315" t="s">
+        <v>587</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E315" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>48</v>
+      </c>
+      <c r="B316" t="s">
+        <v>587</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E316" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>48</v>
+      </c>
+      <c r="B317" t="s">
+        <v>587</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E317" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>49</v>
+      </c>
+      <c r="B318" t="s">
+        <v>591</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E318" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>49</v>
+      </c>
+      <c r="B319" t="s">
+        <v>591</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E319" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>49</v>
+      </c>
+      <c r="B320" t="s">
+        <v>591</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E320" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>49</v>
+      </c>
+      <c r="B321" t="s">
+        <v>591</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E321" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>49</v>
+      </c>
+      <c r="B322" t="s">
+        <v>591</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E322" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>49</v>
+      </c>
+      <c r="B323" t="s">
+        <v>591</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E323" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>50</v>
+      </c>
+      <c r="B324" t="s">
+        <v>596</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="E324" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>50</v>
+      </c>
+      <c r="B325" t="s">
+        <v>596</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E325" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>50</v>
+      </c>
+      <c r="B326" t="s">
+        <v>596</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E326" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>50</v>
+      </c>
+      <c r="B327" t="s">
+        <v>596</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E327" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>50</v>
+      </c>
+      <c r="B328" t="s">
+        <v>596</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E328" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>50</v>
+      </c>
+      <c r="B329" t="s">
+        <v>596</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E329" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>50</v>
+      </c>
+      <c r="B330" t="s">
+        <v>596</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E330" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>51</v>
+      </c>
+      <c r="B331" t="s">
+        <v>604</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="E331" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>51</v>
+      </c>
+      <c r="B332" t="s">
+        <v>604</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="E332" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>51</v>
+      </c>
+      <c r="B333" t="s">
+        <v>604</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E333" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>51</v>
+      </c>
+      <c r="B334" t="s">
+        <v>604</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E334" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>51</v>
+      </c>
+      <c r="B335" t="s">
+        <v>604</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E335" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>51</v>
+      </c>
+      <c r="B336" t="s">
+        <v>604</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E336" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>51</v>
+      </c>
+      <c r="B337" t="s">
+        <v>604</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E337" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>52</v>
+      </c>
+      <c r="B338" t="s">
+        <v>612</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E338" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>52</v>
+      </c>
+      <c r="B339" t="s">
+        <v>612</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E339" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>52</v>
+      </c>
+      <c r="B340" t="s">
+        <v>612</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E340" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>52</v>
+      </c>
+      <c r="B341" t="s">
+        <v>612</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E341" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>52</v>
+      </c>
+      <c r="B342" t="s">
+        <v>612</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E342" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>52</v>
+      </c>
+      <c r="B343" t="s">
+        <v>612</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E343" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>52</v>
+      </c>
+      <c r="B344" t="s">
+        <v>612</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E344" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>52</v>
+      </c>
+      <c r="B345" t="s">
+        <v>612</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E345" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>53</v>
+      </c>
+      <c r="B346" t="s">
+        <v>621</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E346" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>53</v>
+      </c>
+      <c r="B347" t="s">
+        <v>621</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E347" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>53</v>
+      </c>
+      <c r="B348" t="s">
+        <v>621</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E348" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>53</v>
+      </c>
+      <c r="B349" t="s">
+        <v>621</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E349" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>53</v>
+      </c>
+      <c r="B350" t="s">
+        <v>621</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E350" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>53</v>
+      </c>
+      <c r="B351" t="s">
+        <v>621</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E351" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>54</v>
+      </c>
+      <c r="B352" t="s">
+        <v>628</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E352" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>54</v>
+      </c>
+      <c r="B353" t="s">
+        <v>628</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E353" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>54</v>
+      </c>
+      <c r="B354" t="s">
+        <v>628</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E354" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>54</v>
+      </c>
+      <c r="B355" t="s">
+        <v>628</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E355" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>54</v>
+      </c>
+      <c r="B356" t="s">
+        <v>628</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E356" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>54</v>
+      </c>
+      <c r="B357" t="s">
+        <v>628</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E357" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>54</v>
+      </c>
+      <c r="B358" t="s">
+        <v>628</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E358" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>54</v>
+      </c>
+      <c r="B359" t="s">
+        <v>628</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E359" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="775">
   <si>
     <t>id</t>
   </si>
@@ -1927,18 +1927,443 @@
   </si>
   <si>
     <t>RANG</t>
+  </si>
+  <si>
+    <t>D,N,H,A,Y</t>
+  </si>
+  <si>
+    <t>HAND</t>
+  </si>
+  <si>
+    <t>HAD</t>
+  </si>
+  <si>
+    <t>HAY</t>
+  </si>
+  <si>
+    <t>HANDY</t>
+  </si>
+  <si>
+    <t>O,R,U,S,Y</t>
+  </si>
+  <si>
+    <t>YOURS</t>
+  </si>
+  <si>
+    <t>SOUR</t>
+  </si>
+  <si>
+    <t>YOUR</t>
+  </si>
+  <si>
+    <t>SOY</t>
+  </si>
+  <si>
+    <t>YOU</t>
+  </si>
+  <si>
+    <t>I,D,A,R,O</t>
+  </si>
+  <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>RAID</t>
+  </si>
+  <si>
+    <t>ROD</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>T,S,U,N,R</t>
+  </si>
+  <si>
+    <t>RUST</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>RUNS</t>
+  </si>
+  <si>
+    <t>STUN</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>TURNS</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>TURN</t>
+  </si>
+  <si>
+    <t>T,S,H,S,O</t>
+  </si>
+  <si>
+    <t>SHOT</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>SHOTS</t>
+  </si>
+  <si>
+    <t>HOSTS</t>
+  </si>
+  <si>
+    <t>TOSS</t>
+  </si>
+  <si>
+    <t>E,N,D,Y,E</t>
+  </si>
+  <si>
+    <t>DYE</t>
+  </si>
+  <si>
+    <t>NEED</t>
+  </si>
+  <si>
+    <t>NEEDY</t>
+  </si>
+  <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>P,W,N,R,A</t>
+  </si>
+  <si>
+    <t>NAP</t>
+  </si>
+  <si>
+    <t>PRAWN</t>
+  </si>
+  <si>
+    <t>WARN</t>
+  </si>
+  <si>
+    <t>PAWN</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>L,E,W,O,H</t>
+  </si>
+  <si>
+    <t>HOW</t>
+  </si>
+  <si>
+    <t>HOWL</t>
+  </si>
+  <si>
+    <t>WHOLE</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>HOLE</t>
+  </si>
+  <si>
+    <t>N,P,C,I,H</t>
+  </si>
+  <si>
+    <t>CHIN</t>
+  </si>
+  <si>
+    <t>CHIP</t>
+  </si>
+  <si>
+    <t>INCH</t>
+  </si>
+  <si>
+    <t>PINCH</t>
+  </si>
+  <si>
+    <t>M,A,E,T,N</t>
+  </si>
+  <si>
+    <t>NEAT</t>
+  </si>
+  <si>
+    <t>MANE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MEANT</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TAME</t>
+  </si>
+  <si>
+    <t>B,C,A,H,E</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>EACH</t>
+  </si>
+  <si>
+    <t>BEACH</t>
+  </si>
+  <si>
+    <t>A,Y,S,L,T</t>
+  </si>
+  <si>
+    <t>LAYS</t>
+  </si>
+  <si>
+    <t>SALTY</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>A,E,R,F,M</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>FRAME</t>
+  </si>
+  <si>
+    <t>FARE</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>FEAR</t>
+  </si>
+  <si>
+    <t>FAME</t>
+  </si>
+  <si>
+    <t>MARE</t>
+  </si>
+  <si>
+    <t>K,O,C,A,L</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>CLOAK</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>LACK</t>
+  </si>
+  <si>
+    <t>W,O,R,S,T</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>ROT</t>
+  </si>
+  <si>
+    <t>ROWS</t>
+  </si>
+  <si>
+    <t>WORST</t>
+  </si>
+  <si>
+    <t>SOW</t>
+  </si>
+  <si>
+    <t>O,L,S,T,O</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>SLOT</t>
+  </si>
+  <si>
+    <t>LOTS</t>
+  </si>
+  <si>
+    <t>TOOL</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>LOOT</t>
+  </si>
+  <si>
+    <t>STOOL</t>
+  </si>
+  <si>
+    <t>I,G,D,N,R</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>GRIND</t>
+  </si>
+  <si>
+    <t>C,A,M,L,P</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>CAMP</t>
+  </si>
+  <si>
+    <t>CLAMP</t>
+  </si>
+  <si>
+    <t>LAMP</t>
+  </si>
+  <si>
+    <t>PALM</t>
+  </si>
+  <si>
+    <t>CLAP</t>
+  </si>
+  <si>
+    <t>A,B,T,H,I</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>BATH</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>HABIT</t>
+  </si>
+  <si>
+    <t>BAIT</t>
+  </si>
+  <si>
+    <t>E,L,R,T,A</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>TEAR</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>EARL</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>ALERT</t>
+  </si>
+  <si>
+    <t>LATER</t>
+  </si>
+  <si>
+    <t>A,C,H,S,R</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>CRASH</t>
+  </si>
+  <si>
+    <t>ARCH</t>
+  </si>
+  <si>
+    <t>RASH</t>
+  </si>
+  <si>
+    <t>CARS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1994,18 +2419,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:F526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="E360" sqref="E360"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,7 +8463,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>54</v>
       </c>
@@ -8050,7 +8477,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>54</v>
       </c>
@@ -8064,7 +8491,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>54</v>
       </c>
@@ -8078,7 +8505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>54</v>
       </c>
@@ -8092,7 +8519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>54</v>
       </c>
@@ -8106,7 +8533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>54</v>
       </c>
@@ -8120,7 +8547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>54</v>
       </c>
@@ -8131,6 +8558,2345 @@
         <v>45</v>
       </c>
       <c r="E359" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>55</v>
+      </c>
+      <c r="B360" t="s">
+        <v>636</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E360" t="s">
+        <v>116</v>
+      </c>
+      <c r="F360" s="8"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>55</v>
+      </c>
+      <c r="B361" t="s">
+        <v>636</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E361" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>55</v>
+      </c>
+      <c r="B362" t="s">
+        <v>636</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E362" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>55</v>
+      </c>
+      <c r="B363" t="s">
+        <v>636</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E363" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>55</v>
+      </c>
+      <c r="B364" t="s">
+        <v>636</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="E364" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>55</v>
+      </c>
+      <c r="B365" t="s">
+        <v>636</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E365" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>55</v>
+      </c>
+      <c r="B366" t="s">
+        <v>636</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E366" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>56</v>
+      </c>
+      <c r="B367" t="s">
+        <v>641</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E367" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>56</v>
+      </c>
+      <c r="B368" t="s">
+        <v>641</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E368" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>56</v>
+      </c>
+      <c r="B369" t="s">
+        <v>641</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E369" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>56</v>
+      </c>
+      <c r="B370" t="s">
+        <v>641</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E370" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>56</v>
+      </c>
+      <c r="B371" t="s">
+        <v>641</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="E371" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>56</v>
+      </c>
+      <c r="B372" t="s">
+        <v>641</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E372" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>57</v>
+      </c>
+      <c r="B373" t="s">
+        <v>647</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="E373" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>57</v>
+      </c>
+      <c r="B374" t="s">
+        <v>647</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E374" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>57</v>
+      </c>
+      <c r="B375" t="s">
+        <v>647</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E375" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>57</v>
+      </c>
+      <c r="B376" t="s">
+        <v>647</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E376" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>57</v>
+      </c>
+      <c r="B377" t="s">
+        <v>647</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E377" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>57</v>
+      </c>
+      <c r="B378" t="s">
+        <v>647</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E378" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>58</v>
+      </c>
+      <c r="B379" t="s">
+        <v>653</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="E379" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>58</v>
+      </c>
+      <c r="B380" t="s">
+        <v>653</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E380" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>58</v>
+      </c>
+      <c r="B381" t="s">
+        <v>653</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E381" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>58</v>
+      </c>
+      <c r="B382" t="s">
+        <v>653</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="E382" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>58</v>
+      </c>
+      <c r="B383" t="s">
+        <v>653</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E383" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>58</v>
+      </c>
+      <c r="B384" t="s">
+        <v>653</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E384" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>58</v>
+      </c>
+      <c r="B385" t="s">
+        <v>653</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E385" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>58</v>
+      </c>
+      <c r="B386" t="s">
+        <v>653</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E386" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>59</v>
+      </c>
+      <c r="B387" t="s">
+        <v>662</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E387" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>59</v>
+      </c>
+      <c r="B388" t="s">
+        <v>662</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E388" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>59</v>
+      </c>
+      <c r="B389" t="s">
+        <v>662</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E389" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>59</v>
+      </c>
+      <c r="B390" t="s">
+        <v>662</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="E390" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>59</v>
+      </c>
+      <c r="B391" t="s">
+        <v>662</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E391" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>59</v>
+      </c>
+      <c r="B392" t="s">
+        <v>662</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E392" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>60</v>
+      </c>
+      <c r="B393" t="s">
+        <v>668</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E393" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>60</v>
+      </c>
+      <c r="B394" t="s">
+        <v>668</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E394" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>60</v>
+      </c>
+      <c r="B395" t="s">
+        <v>668</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E395" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>60</v>
+      </c>
+      <c r="B396" t="s">
+        <v>668</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E396" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>60</v>
+      </c>
+      <c r="B397" t="s">
+        <v>668</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E397" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>60</v>
+      </c>
+      <c r="B398" t="s">
+        <v>668</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E398" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>60</v>
+      </c>
+      <c r="B399" t="s">
+        <v>668</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E399" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>61</v>
+      </c>
+      <c r="B400" t="s">
+        <v>673</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E400" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>61</v>
+      </c>
+      <c r="B401" t="s">
+        <v>673</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E401" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>61</v>
+      </c>
+      <c r="B402" t="s">
+        <v>673</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="E402" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>61</v>
+      </c>
+      <c r="B403" t="s">
+        <v>673</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E403" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>61</v>
+      </c>
+      <c r="B404" t="s">
+        <v>673</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E404" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>61</v>
+      </c>
+      <c r="B405" t="s">
+        <v>673</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E405" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>61</v>
+      </c>
+      <c r="B406" t="s">
+        <v>673</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E406" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>61</v>
+      </c>
+      <c r="B407" t="s">
+        <v>673</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E407" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>61</v>
+      </c>
+      <c r="B408" t="s">
+        <v>673</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="E408" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>61</v>
+      </c>
+      <c r="B409" t="s">
+        <v>673</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E409" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>62</v>
+      </c>
+      <c r="B410" t="s">
+        <v>679</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="E410" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>62</v>
+      </c>
+      <c r="B411" t="s">
+        <v>679</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E411" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>62</v>
+      </c>
+      <c r="B412" t="s">
+        <v>679</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E412" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>62</v>
+      </c>
+      <c r="B413" t="s">
+        <v>679</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E413" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>62</v>
+      </c>
+      <c r="B414" t="s">
+        <v>679</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E414" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>62</v>
+      </c>
+      <c r="B415" t="s">
+        <v>679</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="E415" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>62</v>
+      </c>
+      <c r="B416" t="s">
+        <v>679</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E416" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>63</v>
+      </c>
+      <c r="B417" t="s">
+        <v>685</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E417" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>63</v>
+      </c>
+      <c r="B418" t="s">
+        <v>685</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E418" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>63</v>
+      </c>
+      <c r="B419" t="s">
+        <v>685</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="E419" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>63</v>
+      </c>
+      <c r="B420" t="s">
+        <v>685</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E420" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>63</v>
+      </c>
+      <c r="B421" t="s">
+        <v>685</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E421" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>63</v>
+      </c>
+      <c r="B422" t="s">
+        <v>685</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E422" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>64</v>
+      </c>
+      <c r="B423" t="s">
+        <v>690</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E423" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>64</v>
+      </c>
+      <c r="B424" t="s">
+        <v>690</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E424" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>64</v>
+      </c>
+      <c r="B425" t="s">
+        <v>690</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="E425" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>64</v>
+      </c>
+      <c r="B426" t="s">
+        <v>690</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="E426" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>64</v>
+      </c>
+      <c r="B427" t="s">
+        <v>690</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E427" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>64</v>
+      </c>
+      <c r="B428" t="s">
+        <v>690</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E428" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>64</v>
+      </c>
+      <c r="B429" t="s">
+        <v>690</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E429" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>64</v>
+      </c>
+      <c r="B430" t="s">
+        <v>690</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E430" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>64</v>
+      </c>
+      <c r="B431" t="s">
+        <v>690</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E431" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>65</v>
+      </c>
+      <c r="B432" t="s">
+        <v>697</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="E432" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>65</v>
+      </c>
+      <c r="B433" t="s">
+        <v>697</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E433" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>65</v>
+      </c>
+      <c r="B434" t="s">
+        <v>697</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E434" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>65</v>
+      </c>
+      <c r="B435" t="s">
+        <v>697</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E435" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>65</v>
+      </c>
+      <c r="B436" t="s">
+        <v>697</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E436" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>66</v>
+      </c>
+      <c r="B437" t="s">
+        <v>703</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E437" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>66</v>
+      </c>
+      <c r="B438" t="s">
+        <v>703</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E438" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>66</v>
+      </c>
+      <c r="B439" t="s">
+        <v>703</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E439" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>66</v>
+      </c>
+      <c r="B440" t="s">
+        <v>703</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E440" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>66</v>
+      </c>
+      <c r="B441" t="s">
+        <v>703</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E441" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>66</v>
+      </c>
+      <c r="B442" t="s">
+        <v>703</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E442" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>66</v>
+      </c>
+      <c r="B443" t="s">
+        <v>703</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E443" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>66</v>
+      </c>
+      <c r="B444" t="s">
+        <v>703</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="E444" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>67</v>
+      </c>
+      <c r="B445" t="s">
+        <v>707</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E445" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>67</v>
+      </c>
+      <c r="B446" t="s">
+        <v>707</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E446" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>67</v>
+      </c>
+      <c r="B447" t="s">
+        <v>707</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E447" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>67</v>
+      </c>
+      <c r="B448" t="s">
+        <v>707</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>67</v>
+      </c>
+      <c r="B449" t="s">
+        <v>707</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E449" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>67</v>
+      </c>
+      <c r="B450" t="s">
+        <v>707</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="E450" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>67</v>
+      </c>
+      <c r="B451" t="s">
+        <v>707</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E451" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>67</v>
+      </c>
+      <c r="B452" t="s">
+        <v>707</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="E452" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>67</v>
+      </c>
+      <c r="B453" t="s">
+        <v>707</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="E453" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>67</v>
+      </c>
+      <c r="B454" t="s">
+        <v>707</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E454" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>67</v>
+      </c>
+      <c r="B455" t="s">
+        <v>707</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E455" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>68</v>
+      </c>
+      <c r="B456" t="s">
+        <v>717</v>
+      </c>
+      <c r="C456" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E456" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>68</v>
+      </c>
+      <c r="B457" t="s">
+        <v>717</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E457" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>68</v>
+      </c>
+      <c r="B458" t="s">
+        <v>717</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="E458" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>68</v>
+      </c>
+      <c r="B459" t="s">
+        <v>717</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E459" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>68</v>
+      </c>
+      <c r="B460" t="s">
+        <v>717</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E460" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>68</v>
+      </c>
+      <c r="B461" t="s">
+        <v>717</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E461" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>69</v>
+      </c>
+      <c r="B462" t="s">
+        <v>724</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="E462" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>69</v>
+      </c>
+      <c r="B463" t="s">
+        <v>724</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="E463" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>69</v>
+      </c>
+      <c r="B464" t="s">
+        <v>724</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E464" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>69</v>
+      </c>
+      <c r="B465" t="s">
+        <v>724</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="E465" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>69</v>
+      </c>
+      <c r="B466" t="s">
+        <v>724</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="E466" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>69</v>
+      </c>
+      <c r="B467" t="s">
+        <v>724</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E467" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>69</v>
+      </c>
+      <c r="B468" t="s">
+        <v>724</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="E468" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>70</v>
+      </c>
+      <c r="B469" t="s">
+        <v>732</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="E469" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>70</v>
+      </c>
+      <c r="B470" t="s">
+        <v>732</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E470" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>70</v>
+      </c>
+      <c r="B471" t="s">
+        <v>732</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E471" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>70</v>
+      </c>
+      <c r="B472" t="s">
+        <v>732</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E472" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>70</v>
+      </c>
+      <c r="B473" t="s">
+        <v>732</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="E473" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>70</v>
+      </c>
+      <c r="B474" t="s">
+        <v>732</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="E474" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>70</v>
+      </c>
+      <c r="B475" t="s">
+        <v>732</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E475" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>70</v>
+      </c>
+      <c r="B476" t="s">
+        <v>732</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E476" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>70</v>
+      </c>
+      <c r="B477" t="s">
+        <v>732</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E477" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>71</v>
+      </c>
+      <c r="B478" t="s">
+        <v>741</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E478" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>71</v>
+      </c>
+      <c r="B479" t="s">
+        <v>741</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="E479" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>71</v>
+      </c>
+      <c r="B480" t="s">
+        <v>741</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E480" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>71</v>
+      </c>
+      <c r="B481" t="s">
+        <v>741</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E481" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>71</v>
+      </c>
+      <c r="B482" t="s">
+        <v>741</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E482" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>71</v>
+      </c>
+      <c r="B483" t="s">
+        <v>741</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E483" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>71</v>
+      </c>
+      <c r="B484" t="s">
+        <v>741</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E484" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>71</v>
+      </c>
+      <c r="B485" t="s">
+        <v>741</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="E485" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>72</v>
+      </c>
+      <c r="B486" t="s">
+        <v>745</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="E486" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>72</v>
+      </c>
+      <c r="B487" t="s">
+        <v>745</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="E487" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>72</v>
+      </c>
+      <c r="B488" t="s">
+        <v>745</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="E488" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>72</v>
+      </c>
+      <c r="B489" t="s">
+        <v>745</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="E489" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>72</v>
+      </c>
+      <c r="B490" t="s">
+        <v>745</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E490" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>72</v>
+      </c>
+      <c r="B491" t="s">
+        <v>745</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="E491" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>72</v>
+      </c>
+      <c r="B492" t="s">
+        <v>745</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E492" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>72</v>
+      </c>
+      <c r="B493" t="s">
+        <v>745</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E493" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>72</v>
+      </c>
+      <c r="B494" t="s">
+        <v>745</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E494" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>72</v>
+      </c>
+      <c r="B495" t="s">
+        <v>745</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E495" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>72</v>
+      </c>
+      <c r="B496" t="s">
+        <v>745</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E496" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>72</v>
+      </c>
+      <c r="B497" t="s">
+        <v>745</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="E497" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>73</v>
+      </c>
+      <c r="B498" t="s">
+        <v>754</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E498" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>73</v>
+      </c>
+      <c r="B499" t="s">
+        <v>754</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E499" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>73</v>
+      </c>
+      <c r="B500" t="s">
+        <v>754</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E500" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>73</v>
+      </c>
+      <c r="B501" t="s">
+        <v>754</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E501" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>73</v>
+      </c>
+      <c r="B502" t="s">
+        <v>754</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="E502" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>73</v>
+      </c>
+      <c r="B503" t="s">
+        <v>754</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E503" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>73</v>
+      </c>
+      <c r="B504" t="s">
+        <v>754</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E504" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>73</v>
+      </c>
+      <c r="B505" t="s">
+        <v>754</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E505" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>74</v>
+      </c>
+      <c r="B506" t="s">
+        <v>761</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E506" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>74</v>
+      </c>
+      <c r="B507" t="s">
+        <v>761</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E507" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>74</v>
+      </c>
+      <c r="B508" t="s">
+        <v>761</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="E508" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>74</v>
+      </c>
+      <c r="B509" t="s">
+        <v>761</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E509" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>74</v>
+      </c>
+      <c r="B510" t="s">
+        <v>761</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E510" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>74</v>
+      </c>
+      <c r="B511" t="s">
+        <v>761</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="E511" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>74</v>
+      </c>
+      <c r="B512" t="s">
+        <v>761</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="E512" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>74</v>
+      </c>
+      <c r="B513" t="s">
+        <v>761</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="E513" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>74</v>
+      </c>
+      <c r="B514" t="s">
+        <v>761</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E514" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>74</v>
+      </c>
+      <c r="B515" t="s">
+        <v>761</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E515" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>74</v>
+      </c>
+      <c r="B516" t="s">
+        <v>761</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E516" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>74</v>
+      </c>
+      <c r="B517" t="s">
+        <v>761</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E517" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>75</v>
+      </c>
+      <c r="B518" t="s">
+        <v>769</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E518" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>75</v>
+      </c>
+      <c r="B519" t="s">
+        <v>769</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E519" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>75</v>
+      </c>
+      <c r="B520" t="s">
+        <v>769</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E520" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>75</v>
+      </c>
+      <c r="B521" t="s">
+        <v>769</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E521" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>75</v>
+      </c>
+      <c r="B522" t="s">
+        <v>769</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E522" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>75</v>
+      </c>
+      <c r="B523" t="s">
+        <v>769</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E523" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>75</v>
+      </c>
+      <c r="B524" t="s">
+        <v>769</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E524" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>75</v>
+      </c>
+      <c r="B525" t="s">
+        <v>769</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E525" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>75</v>
+      </c>
+      <c r="B526" t="s">
+        <v>769</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E526" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="822">
   <si>
     <t>id</t>
   </si>
@@ -2344,18 +2344,167 @@
   </si>
   <si>
     <t>CARS</t>
+  </si>
+  <si>
+    <t>E,U,S,R,S</t>
+  </si>
+  <si>
+    <t>SURE</t>
+  </si>
+  <si>
+    <t>USES</t>
+  </si>
+  <si>
+    <t>SUES</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>N,K,E,S,E</t>
+  </si>
+  <si>
+    <t>SEEN</t>
+  </si>
+  <si>
+    <t>KNEE</t>
+  </si>
+  <si>
+    <t>KNEES</t>
+  </si>
+  <si>
+    <t>KEEN</t>
+  </si>
+  <si>
+    <t>I,S,P,T,L</t>
+  </si>
+  <si>
+    <t>SPIT</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>SLIP</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>L,L,A,B,E</t>
+  </si>
+  <si>
+    <t>ABLE</t>
+  </si>
+  <si>
+    <t>BELL</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>O,O,R,P,M</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>POOR</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>PROMO</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>R,U,B,G,Y</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>RUG</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>BURY</t>
+  </si>
+  <si>
+    <t>RUGBY</t>
+  </si>
+  <si>
+    <t>E,L,K,S,I</t>
+  </si>
+  <si>
+    <t>SILK</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>ISLE</t>
+  </si>
+  <si>
+    <t>SKI</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>LIES</t>
+  </si>
+  <si>
+    <t>LIKES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2419,20 +2568,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2713,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F526"/>
+  <dimension ref="A1:F578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="F360" sqref="F360"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="E578" sqref="E578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,6 +11050,734 @@
         <v>46</v>
       </c>
     </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>76</v>
+      </c>
+      <c r="B527" t="s">
+        <v>775</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E527" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>76</v>
+      </c>
+      <c r="B528" t="s">
+        <v>775</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E528" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>76</v>
+      </c>
+      <c r="B529" t="s">
+        <v>775</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="E529" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>76</v>
+      </c>
+      <c r="B530" t="s">
+        <v>775</v>
+      </c>
+      <c r="C530" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="E530" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>76</v>
+      </c>
+      <c r="B531" t="s">
+        <v>775</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="E531" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>76</v>
+      </c>
+      <c r="B532" t="s">
+        <v>775</v>
+      </c>
+      <c r="C532" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="E532" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>76</v>
+      </c>
+      <c r="B533" t="s">
+        <v>775</v>
+      </c>
+      <c r="C533" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E533" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>76</v>
+      </c>
+      <c r="B534" t="s">
+        <v>775</v>
+      </c>
+      <c r="C534" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="E534" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>77</v>
+      </c>
+      <c r="B535" t="s">
+        <v>781</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="E535" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>77</v>
+      </c>
+      <c r="B536" t="s">
+        <v>781</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E536" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>77</v>
+      </c>
+      <c r="B537" t="s">
+        <v>781</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E537" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>77</v>
+      </c>
+      <c r="B538" t="s">
+        <v>781</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="E538" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>77</v>
+      </c>
+      <c r="B539" t="s">
+        <v>781</v>
+      </c>
+      <c r="C539" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E539" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>77</v>
+      </c>
+      <c r="B540" t="s">
+        <v>781</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E540" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>78</v>
+      </c>
+      <c r="B541" t="s">
+        <v>786</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E541" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>78</v>
+      </c>
+      <c r="B542" t="s">
+        <v>786</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="E542" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>78</v>
+      </c>
+      <c r="B543" t="s">
+        <v>786</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="E543" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>78</v>
+      </c>
+      <c r="B544" t="s">
+        <v>786</v>
+      </c>
+      <c r="C544" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="E544" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>78</v>
+      </c>
+      <c r="B545" t="s">
+        <v>786</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E545" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>78</v>
+      </c>
+      <c r="B546" t="s">
+        <v>786</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="E546" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>78</v>
+      </c>
+      <c r="B547" t="s">
+        <v>786</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E547" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>78</v>
+      </c>
+      <c r="B548" t="s">
+        <v>786</v>
+      </c>
+      <c r="C548" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="E548" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>78</v>
+      </c>
+      <c r="B549" t="s">
+        <v>786</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="E549" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>78</v>
+      </c>
+      <c r="B550" t="s">
+        <v>786</v>
+      </c>
+      <c r="C550" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E550" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>79</v>
+      </c>
+      <c r="B551" t="s">
+        <v>793</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E551" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>79</v>
+      </c>
+      <c r="B552" t="s">
+        <v>793</v>
+      </c>
+      <c r="C552" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E552" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>79</v>
+      </c>
+      <c r="B553" t="s">
+        <v>793</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E553" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>79</v>
+      </c>
+      <c r="B554" t="s">
+        <v>793</v>
+      </c>
+      <c r="C554" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E554" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>79</v>
+      </c>
+      <c r="B555" t="s">
+        <v>793</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="E555" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>79</v>
+      </c>
+      <c r="B556" t="s">
+        <v>793</v>
+      </c>
+      <c r="C556" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="E556" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>79</v>
+      </c>
+      <c r="B557" t="s">
+        <v>793</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E557" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>80</v>
+      </c>
+      <c r="B558" t="s">
+        <v>799</v>
+      </c>
+      <c r="C558" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="E558" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>80</v>
+      </c>
+      <c r="B559" t="s">
+        <v>799</v>
+      </c>
+      <c r="C559" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="E559" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>80</v>
+      </c>
+      <c r="B560" t="s">
+        <v>799</v>
+      </c>
+      <c r="C560" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E560" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>80</v>
+      </c>
+      <c r="B561" t="s">
+        <v>799</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="E561" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>80</v>
+      </c>
+      <c r="B562" t="s">
+        <v>799</v>
+      </c>
+      <c r="C562" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E562" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>80</v>
+      </c>
+      <c r="B563" t="s">
+        <v>799</v>
+      </c>
+      <c r="C563" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="E563" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>81</v>
+      </c>
+      <c r="B564" t="s">
+        <v>806</v>
+      </c>
+      <c r="C564" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="E564" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>81</v>
+      </c>
+      <c r="B565" t="s">
+        <v>806</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E565" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>81</v>
+      </c>
+      <c r="B566" t="s">
+        <v>806</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="E566" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>81</v>
+      </c>
+      <c r="B567" t="s">
+        <v>806</v>
+      </c>
+      <c r="C567" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="E567" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>81</v>
+      </c>
+      <c r="B568" t="s">
+        <v>806</v>
+      </c>
+      <c r="C568" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="E568" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>81</v>
+      </c>
+      <c r="B569" t="s">
+        <v>806</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="E569" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>81</v>
+      </c>
+      <c r="B570" t="s">
+        <v>806</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="E570" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>81</v>
+      </c>
+      <c r="B571" t="s">
+        <v>806</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E571" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>82</v>
+      </c>
+      <c r="B572" t="s">
+        <v>814</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="E572" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>82</v>
+      </c>
+      <c r="B573" t="s">
+        <v>814</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="E573" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>82</v>
+      </c>
+      <c r="B574" t="s">
+        <v>814</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E574" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>82</v>
+      </c>
+      <c r="B575" t="s">
+        <v>814</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="E575" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>82</v>
+      </c>
+      <c r="B576" t="s">
+        <v>814</v>
+      </c>
+      <c r="C576" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="E576" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>82</v>
+      </c>
+      <c r="B577" t="s">
+        <v>814</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E577" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>82</v>
+      </c>
+      <c r="B578" t="s">
+        <v>814</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E578" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Levels/en/Wordlist.xlsx
+++ b/Levels/en/Wordlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="933">
   <si>
     <t>id</t>
   </si>
@@ -2485,18 +2485,359 @@
   </si>
   <si>
     <t>LIKES</t>
+  </si>
+  <si>
+    <t>T,N,E,O,K</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
+  </si>
+  <si>
+    <t>KNOT</t>
+  </si>
+  <si>
+    <t>CRAB</t>
+  </si>
+  <si>
+    <t>BARE</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>ACRE</t>
+  </si>
+  <si>
+    <t>BEAR</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>BRACE</t>
+  </si>
+  <si>
+    <t>C,R,B,A,E</t>
+  </si>
+  <si>
+    <t>U,O,F,M,R</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>FORUM</t>
+  </si>
+  <si>
+    <t>RUM</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>S,C,K,H,E,T</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>SKETCH</t>
+  </si>
+  <si>
+    <t>THE</t>
+  </si>
+  <si>
+    <t>CHEST</t>
+  </si>
+  <si>
+    <t>M,O,D,E,V</t>
+  </si>
+  <si>
+    <t>DOME</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>DOVE</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>MOVED</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>I,N,R,W,N,E</t>
+  </si>
+  <si>
+    <t>WIRE</t>
+  </si>
+  <si>
+    <t>NINE</t>
+  </si>
+  <si>
+    <t>REIN</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>INNER</t>
+  </si>
+  <si>
+    <t>T,O,M,H,S,O</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>SHOOT</t>
+  </si>
+  <si>
+    <t>SMOOTH</t>
+  </si>
+  <si>
+    <t>A,T,S,W,N</t>
+  </si>
+  <si>
+    <t>SAW</t>
+  </si>
+  <si>
+    <t>SWAN</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>WANTS</t>
+  </si>
+  <si>
+    <t>ANTS</t>
+  </si>
+  <si>
+    <t>O,C,Y,N,A,N</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>CANYON</t>
+  </si>
+  <si>
+    <t>CANON</t>
+  </si>
+  <si>
+    <t>ANNOY</t>
+  </si>
+  <si>
+    <t>E,T,L,E,B,E</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>BELT</t>
+  </si>
+  <si>
+    <t>BEETLE</t>
+  </si>
+  <si>
+    <t>BEET</t>
+  </si>
+  <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>N,O,B,I,R</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>BORN</t>
+  </si>
+  <si>
+    <t>ROB</t>
+  </si>
+  <si>
+    <t>C,O,K,E,O,R</t>
+  </si>
+  <si>
+    <t>ROCK</t>
+  </si>
+  <si>
+    <t>ROOK</t>
+  </si>
+  <si>
+    <t>COOK</t>
+  </si>
+  <si>
+    <t>COOKER</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>CORK</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>A,E,V,H,E,N</t>
+  </si>
+  <si>
+    <t>HEAVEN</t>
+  </si>
+  <si>
+    <t>HAVEN</t>
+  </si>
+  <si>
+    <t>EVEN</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>HAVE</t>
+  </si>
+  <si>
+    <t>R,I,P,E,C</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>RIPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>PIER</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>L,O,L,F,W,O</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>FOOL</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>WOOL</t>
+  </si>
+  <si>
+    <t>FOLLOW</t>
+  </si>
+  <si>
+    <t>A,S,O,N,L,M</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>ALSO</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>SALMON</t>
+  </si>
+  <si>
+    <t>MOAN</t>
+  </si>
+  <si>
+    <t>SALON</t>
+  </si>
+  <si>
+    <t>A,H,S,D,N</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>HANDS</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>O,N,V,L,I,G</t>
+  </si>
+  <si>
+    <t>LOVING</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>LION</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2568,20 +2909,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2863,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F578"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="E578" sqref="E578"/>
+    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
+      <selection activeCell="E710" sqref="E710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11778,6 +12120,1924 @@
         <v>116</v>
       </c>
     </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>83</v>
+      </c>
+      <c r="B579" t="s">
+        <v>822</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E579" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>83</v>
+      </c>
+      <c r="B580" t="s">
+        <v>822</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="E580" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>83</v>
+      </c>
+      <c r="B581" t="s">
+        <v>822</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="E581" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>83</v>
+      </c>
+      <c r="B582" t="s">
+        <v>822</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="E582" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>83</v>
+      </c>
+      <c r="B583" t="s">
+        <v>822</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E583" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>83</v>
+      </c>
+      <c r="B584" t="s">
+        <v>822</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="E584" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>83</v>
+      </c>
+      <c r="B585" t="s">
+        <v>822</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E585" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>83</v>
+      </c>
+      <c r="B586" t="s">
+        <v>822</v>
+      </c>
+      <c r="C586" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E586" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>83</v>
+      </c>
+      <c r="B587" t="s">
+        <v>822</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="E587" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>84</v>
+      </c>
+      <c r="B588" t="s">
+        <v>832</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="E588" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>84</v>
+      </c>
+      <c r="B589" t="s">
+        <v>832</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="E589" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>84</v>
+      </c>
+      <c r="B590" t="s">
+        <v>832</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="E590" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>84</v>
+      </c>
+      <c r="B591" t="s">
+        <v>832</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E591" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>84</v>
+      </c>
+      <c r="B592" t="s">
+        <v>832</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="E592" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>84</v>
+      </c>
+      <c r="B593" t="s">
+        <v>832</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="E593" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>84</v>
+      </c>
+      <c r="B594" t="s">
+        <v>832</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E594" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>85</v>
+      </c>
+      <c r="B595" t="s">
+        <v>833</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E595" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>85</v>
+      </c>
+      <c r="B596" t="s">
+        <v>833</v>
+      </c>
+      <c r="C596" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E596" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>85</v>
+      </c>
+      <c r="B597" t="s">
+        <v>833</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E597" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>85</v>
+      </c>
+      <c r="B598" t="s">
+        <v>833</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E598" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>85</v>
+      </c>
+      <c r="B599" t="s">
+        <v>833</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E599" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>85</v>
+      </c>
+      <c r="B600" t="s">
+        <v>833</v>
+      </c>
+      <c r="C600" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E600" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>85</v>
+      </c>
+      <c r="B601" t="s">
+        <v>833</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="E601" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>85</v>
+      </c>
+      <c r="B602" t="s">
+        <v>833</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E602" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>86</v>
+      </c>
+      <c r="B603" t="s">
+        <v>838</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E603" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>86</v>
+      </c>
+      <c r="B604" t="s">
+        <v>838</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E604" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>86</v>
+      </c>
+      <c r="B605" t="s">
+        <v>838</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E605" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>86</v>
+      </c>
+      <c r="B606" t="s">
+        <v>838</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E606" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>86</v>
+      </c>
+      <c r="B607" t="s">
+        <v>838</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="E607" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>86</v>
+      </c>
+      <c r="B608" t="s">
+        <v>838</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E608" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>87</v>
+      </c>
+      <c r="B609" t="s">
+        <v>843</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="E609" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>87</v>
+      </c>
+      <c r="B610" t="s">
+        <v>843</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="E610" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>87</v>
+      </c>
+      <c r="B611" t="s">
+        <v>843</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E611" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>87</v>
+      </c>
+      <c r="B612" t="s">
+        <v>843</v>
+      </c>
+      <c r="C612" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E612" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>87</v>
+      </c>
+      <c r="B613" t="s">
+        <v>843</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="E613" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>87</v>
+      </c>
+      <c r="B614" t="s">
+        <v>843</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E614" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>87</v>
+      </c>
+      <c r="B615" t="s">
+        <v>843</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E615" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>88</v>
+      </c>
+      <c r="B616" t="s">
+        <v>850</v>
+      </c>
+      <c r="C616" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E616" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>88</v>
+      </c>
+      <c r="B617" t="s">
+        <v>850</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E617" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>88</v>
+      </c>
+      <c r="B618" t="s">
+        <v>850</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="E618" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>88</v>
+      </c>
+      <c r="B619" t="s">
+        <v>850</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E619" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>88</v>
+      </c>
+      <c r="B620" t="s">
+        <v>850</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E620" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>88</v>
+      </c>
+      <c r="B621" t="s">
+        <v>850</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E621" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>88</v>
+      </c>
+      <c r="B622" t="s">
+        <v>850</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E622" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>88</v>
+      </c>
+      <c r="B623" t="s">
+        <v>850</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E623" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>88</v>
+      </c>
+      <c r="B624" t="s">
+        <v>850</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="E624" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>89</v>
+      </c>
+      <c r="B625" t="s">
+        <v>857</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E625" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>89</v>
+      </c>
+      <c r="B626" t="s">
+        <v>857</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="E626" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>89</v>
+      </c>
+      <c r="B627" t="s">
+        <v>857</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="E627" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>89</v>
+      </c>
+      <c r="B628" t="s">
+        <v>857</v>
+      </c>
+      <c r="C628" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="E628" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>89</v>
+      </c>
+      <c r="B629" t="s">
+        <v>857</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="E629" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>89</v>
+      </c>
+      <c r="B630" t="s">
+        <v>857</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E630" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>89</v>
+      </c>
+      <c r="B631" t="s">
+        <v>857</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="E631" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>90</v>
+      </c>
+      <c r="B632" t="s">
+        <v>861</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E632" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>90</v>
+      </c>
+      <c r="B633" t="s">
+        <v>861</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="E633" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>90</v>
+      </c>
+      <c r="B634" t="s">
+        <v>861</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="E634" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>90</v>
+      </c>
+      <c r="B635" t="s">
+        <v>861</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E635" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>90</v>
+      </c>
+      <c r="B636" t="s">
+        <v>861</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="E636" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>90</v>
+      </c>
+      <c r="B637" t="s">
+        <v>861</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E637" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>90</v>
+      </c>
+      <c r="B638" t="s">
+        <v>861</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E638" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>90</v>
+      </c>
+      <c r="B639" t="s">
+        <v>861</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E639" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>90</v>
+      </c>
+      <c r="B640" t="s">
+        <v>861</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E640" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>91</v>
+      </c>
+      <c r="B641" t="s">
+        <v>867</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="E641" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>91</v>
+      </c>
+      <c r="B642" t="s">
+        <v>867</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="E642" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>91</v>
+      </c>
+      <c r="B643" t="s">
+        <v>867</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="E643" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>91</v>
+      </c>
+      <c r="B644" t="s">
+        <v>867</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="E644" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>91</v>
+      </c>
+      <c r="B645" t="s">
+        <v>867</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="E645" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>91</v>
+      </c>
+      <c r="B646" t="s">
+        <v>867</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E646" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>92</v>
+      </c>
+      <c r="B647" t="s">
+        <v>872</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="E647" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>92</v>
+      </c>
+      <c r="B648" t="s">
+        <v>872</v>
+      </c>
+      <c r="C648" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E648" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>92</v>
+      </c>
+      <c r="B649" t="s">
+        <v>872</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E649" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>92</v>
+      </c>
+      <c r="B650" t="s">
+        <v>872</v>
+      </c>
+      <c r="C650" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E650" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>92</v>
+      </c>
+      <c r="B651" t="s">
+        <v>872</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="E651" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>92</v>
+      </c>
+      <c r="B652" t="s">
+        <v>872</v>
+      </c>
+      <c r="C652" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="E652" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>93</v>
+      </c>
+      <c r="B653" t="s">
+        <v>878</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="E653" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>93</v>
+      </c>
+      <c r="B654" t="s">
+        <v>878</v>
+      </c>
+      <c r="C654" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="E654" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>93</v>
+      </c>
+      <c r="B655" t="s">
+        <v>878</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="E655" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>93</v>
+      </c>
+      <c r="B656" t="s">
+        <v>878</v>
+      </c>
+      <c r="C656" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E656" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>93</v>
+      </c>
+      <c r="B657" t="s">
+        <v>878</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E657" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>93</v>
+      </c>
+      <c r="B658" t="s">
+        <v>878</v>
+      </c>
+      <c r="C658" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E658" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>93</v>
+      </c>
+      <c r="B659" t="s">
+        <v>878</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E659" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>94</v>
+      </c>
+      <c r="B660" t="s">
+        <v>884</v>
+      </c>
+      <c r="C660" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E660" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>94</v>
+      </c>
+      <c r="B661" t="s">
+        <v>884</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="E661" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>94</v>
+      </c>
+      <c r="B662" t="s">
+        <v>884</v>
+      </c>
+      <c r="C662" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="E662" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>94</v>
+      </c>
+      <c r="B663" t="s">
+        <v>884</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="E663" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>94</v>
+      </c>
+      <c r="B664" t="s">
+        <v>884</v>
+      </c>
+      <c r="C664" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="E664" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>94</v>
+      </c>
+      <c r="B665" t="s">
+        <v>884</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="E665" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>94</v>
+      </c>
+      <c r="B666" t="s">
+        <v>884</v>
+      </c>
+      <c r="C666" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="E666" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>94</v>
+      </c>
+      <c r="B667" t="s">
+        <v>884</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E667" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>95</v>
+      </c>
+      <c r="B668" t="s">
+        <v>893</v>
+      </c>
+      <c r="C668" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="E668" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>95</v>
+      </c>
+      <c r="B669" t="s">
+        <v>893</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E669" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>95</v>
+      </c>
+      <c r="B670" t="s">
+        <v>893</v>
+      </c>
+      <c r="C670" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="E670" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>95</v>
+      </c>
+      <c r="B671" t="s">
+        <v>893</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="E671" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>95</v>
+      </c>
+      <c r="B672" t="s">
+        <v>893</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="E672" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>95</v>
+      </c>
+      <c r="B673" t="s">
+        <v>893</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E673" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>95</v>
+      </c>
+      <c r="B674" t="s">
+        <v>893</v>
+      </c>
+      <c r="C674" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E674" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>96</v>
+      </c>
+      <c r="B675" t="s">
+        <v>899</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="E675" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>96</v>
+      </c>
+      <c r="B676" t="s">
+        <v>899</v>
+      </c>
+      <c r="C676" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="E676" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>96</v>
+      </c>
+      <c r="B677" t="s">
+        <v>899</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="E677" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>96</v>
+      </c>
+      <c r="B678" t="s">
+        <v>899</v>
+      </c>
+      <c r="C678" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E678" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>96</v>
+      </c>
+      <c r="B679" t="s">
+        <v>899</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E679" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>96</v>
+      </c>
+      <c r="B680" t="s">
+        <v>899</v>
+      </c>
+      <c r="C680" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="E680" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>96</v>
+      </c>
+      <c r="B681" t="s">
+        <v>899</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="E681" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>96</v>
+      </c>
+      <c r="B682" t="s">
+        <v>899</v>
+      </c>
+      <c r="C682" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="E682" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>96</v>
+      </c>
+      <c r="B683" t="s">
+        <v>899</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="E683" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>97</v>
+      </c>
+      <c r="B684" t="s">
+        <v>908</v>
+      </c>
+      <c r="C684" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="E684" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>97</v>
+      </c>
+      <c r="B685" t="s">
+        <v>908</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="E685" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>97</v>
+      </c>
+      <c r="B686" t="s">
+        <v>908</v>
+      </c>
+      <c r="C686" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="E686" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>97</v>
+      </c>
+      <c r="B687" t="s">
+        <v>908</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E687" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>97</v>
+      </c>
+      <c r="B688" t="s">
+        <v>908</v>
+      </c>
+      <c r="C688" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E688" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>97</v>
+      </c>
+      <c r="B689" t="s">
+        <v>908</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="E689" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>97</v>
+      </c>
+      <c r="B690" t="s">
+        <v>908</v>
+      </c>
+      <c r="C690" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E690" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>98</v>
+      </c>
+      <c r="B691" t="s">
+        <v>914</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="E691" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>98</v>
+      </c>
+      <c r="B692" t="s">
+        <v>914</v>
+      </c>
+      <c r="C692" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E692" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>98</v>
+      </c>
+      <c r="B693" t="s">
+        <v>914</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E693" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>98</v>
+      </c>
+      <c r="B694" t="s">
+        <v>914</v>
+      </c>
+      <c r="C694" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="E694" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>98</v>
+      </c>
+      <c r="B695" t="s">
+        <v>914</v>
+      </c>
+      <c r="C695" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E695" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>98</v>
+      </c>
+      <c r="B696" t="s">
+        <v>914</v>
+      </c>
+      <c r="C696" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="E696" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>98</v>
+      </c>
+      <c r="B697" t="s">
+        <v>914</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="E697" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>98</v>
+      </c>
+      <c r="B698" t="s">
+        <v>914</v>
+      </c>
+      <c r="C698" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="E698" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>99</v>
+      </c>
+      <c r="B699" t="s">
+        <v>922</v>
+      </c>
+      <c r="C699" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E699" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>99</v>
+      </c>
+      <c r="B700" t="s">
+        <v>922</v>
+      </c>
+      <c r="C700" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E700" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>99</v>
+      </c>
+      <c r="B701" t="s">
+        <v>922</v>
+      </c>
+      <c r="C701" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="E701" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>99</v>
+      </c>
+      <c r="B702" t="s">
+        <v>922</v>
+      </c>
+      <c r="C702" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="E702" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>99</v>
+      </c>
+      <c r="B703" t="s">
+        <v>922</v>
+      </c>
+      <c r="C703" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="E703" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>99</v>
+      </c>
+      <c r="B704" t="s">
+        <v>922</v>
+      </c>
+      <c r="C704" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E704" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>99</v>
+      </c>
+      <c r="B705" t="s">
+        <v>922</v>
+      </c>
+      <c r="C705" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="E705" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>99</v>
+      </c>
+      <c r="B706" t="s">
+        <v>922</v>
+      </c>
+      <c r="C706" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E706" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>99</v>
+      </c>
+      <c r="B707" t="s">
+        <v>922</v>
+      </c>
+      <c r="C707" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="E707" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>99</v>
+      </c>
+      <c r="B708" t="s">
+        <v>922</v>
+      </c>
+      <c r="C708" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="E708" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>100</v>
+      </c>
+      <c r="B709" t="s">
+        <v>928</v>
+      </c>
+      <c r="C709" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E709" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>100</v>
+      </c>
+      <c r="B710" t="s">
+        <v>928</v>
+      </c>
+      <c r="C710" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="E710" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>100</v>
+      </c>
+      <c r="B711" t="s">
+        <v>928</v>
+      </c>
+      <c r="C711" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E711" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>100</v>
+      </c>
+      <c r="B712" t="s">
+        <v>928</v>
+      </c>
+      <c r="C712" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="E712" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>100</v>
+      </c>
+      <c r="B713" t="s">
+        <v>928</v>
+      </c>
+      <c r="C713" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="E713" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>100</v>
+      </c>
+      <c r="B714" t="s">
+        <v>928</v>
+      </c>
+      <c r="C714" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E714" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>100</v>
+      </c>
+      <c r="B715" t="s">
+        <v>928</v>
+      </c>
+      <c r="C715" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="E715" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
